--- a/SectionEssay/Essay on section selection.xlsx
+++ b/SectionEssay/Essay on section selection.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23177238\Documents\Tracker Design and Subcomponent Selections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB119CF-6647-44A3-A56F-F4288EAB040E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9F0586-5CAB-4808-8FEC-94605F92966B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" xr2:uid="{3570E485-27C5-4340-A493-724C1F9336A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2" xr2:uid="{3570E485-27C5-4340-A493-724C1F9336A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Torsion and Bending Bending Mem" sheetId="1" r:id="rId1"/>
     <sheet name="Bending Beam Members" sheetId="2" r:id="rId2"/>
+    <sheet name="For Same Coil Width" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="110">
   <si>
     <t>Circular tube</t>
   </si>
@@ -328,6 +329,39 @@
   </si>
   <si>
     <t>122.5x2.5</t>
+  </si>
+  <si>
+    <t>For approximately the same coil width</t>
+  </si>
+  <si>
+    <t>Coil Width</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>Hexagon</t>
+  </si>
+  <si>
+    <t>Octagon</t>
+  </si>
+  <si>
+    <t>Circular</t>
+  </si>
+  <si>
+    <t>Major Dim</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>ρ</t>
+  </si>
+  <si>
+    <t>(working dimension)</t>
   </si>
 </sst>
 </file>
@@ -338,10 +372,10 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +429,12 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -926,7 +966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -985,40 +1025,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1029,11 +1036,8 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1068,15 +1072,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1089,15 +1087,9 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1111,9 +1103,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1123,12 +1112,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1136,9 +1119,6 @@
     <xf numFmtId="43" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1154,9 +1134,85 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1474,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C08AA1-95E1-430D-9049-E27E461C916B}">
   <dimension ref="B1:AS58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AK1"/>
+    <sheetView topLeftCell="G8" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1519,82 +1575,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="69"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AB1" s="133"/>
+      <c r="AC1" s="133"/>
+      <c r="AD1" s="133"/>
+      <c r="AE1" s="133"/>
+      <c r="AF1" s="133"/>
+      <c r="AG1" s="133"/>
+      <c r="AH1" s="133"/>
+      <c r="AI1" s="133"/>
+      <c r="AJ1" s="133"/>
+      <c r="AK1" s="134"/>
     </row>
     <row r="5" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="70"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
       <c r="AL5" t="s">
         <v>7</v>
       </c>
@@ -1606,65 +1662,65 @@
       </c>
     </row>
     <row r="7" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="M7" s="61" t="s">
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="140"/>
+      <c r="M7" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="63"/>
-      <c r="V7" s="61" t="s">
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="140"/>
+      <c r="V7" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="63"/>
-      <c r="AE7" s="61" t="s">
+      <c r="W7" s="139"/>
+      <c r="X7" s="139"/>
+      <c r="Y7" s="139"/>
+      <c r="Z7" s="140"/>
+      <c r="AE7" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="63"/>
+      <c r="AF7" s="139"/>
+      <c r="AG7" s="139"/>
+      <c r="AH7" s="139"/>
+      <c r="AI7" s="140"/>
     </row>
     <row r="8" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
-      <c r="M9" s="64" t="s">
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="143"/>
+      <c r="M9" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="66"/>
-      <c r="V9" s="64" t="s">
+      <c r="N9" s="142"/>
+      <c r="O9" s="142"/>
+      <c r="P9" s="142"/>
+      <c r="Q9" s="143"/>
+      <c r="V9" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="66"/>
-      <c r="AE9" s="64" t="s">
+      <c r="W9" s="142"/>
+      <c r="X9" s="142"/>
+      <c r="Y9" s="142"/>
+      <c r="Z9" s="143"/>
+      <c r="AE9" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="66"/>
+      <c r="AF9" s="142"/>
+      <c r="AG9" s="142"/>
+      <c r="AH9" s="142"/>
+      <c r="AI9" s="143"/>
     </row>
     <row r="10" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="6">
@@ -1741,7 +1797,7 @@
       </c>
     </row>
     <row r="11" spans="2:38" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="135" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="2">
@@ -1770,7 +1826,7 @@
       <c r="I11" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="58" t="s">
+      <c r="K11" s="135" t="s">
         <v>81</v>
       </c>
       <c r="L11" s="2">
@@ -1799,7 +1855,7 @@
       <c r="R11" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="58" t="s">
+      <c r="T11" s="135" t="s">
         <v>1</v>
       </c>
       <c r="U11" s="2">
@@ -1828,7 +1884,7 @@
       <c r="AA11" t="s">
         <v>9</v>
       </c>
-      <c r="AC11" s="58" t="s">
+      <c r="AC11" s="135" t="s">
         <v>4</v>
       </c>
       <c r="AD11" s="13">
@@ -1838,11 +1894,11 @@
         <f>$AD$11*AE10*4*7.851/1000</f>
         <v>7.851</v>
       </c>
-      <c r="AF11" s="74">
+      <c r="AF11" s="63">
         <f>$AD$11*AF10*4*7.851/1000</f>
         <v>9.4212000000000007</v>
       </c>
-      <c r="AG11" s="74">
+      <c r="AG11" s="63">
         <f>$AD$11*AG10*4*7.851/1000</f>
         <v>10.991400000000001</v>
       </c>
@@ -1859,7 +1915,7 @@
       </c>
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B12" s="59"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="3">
         <v>120</v>
       </c>
@@ -1886,7 +1942,7 @@
       <c r="I12" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="59"/>
+      <c r="K12" s="136"/>
       <c r="L12" s="3">
         <v>125</v>
       </c>
@@ -1913,7 +1969,7 @@
       <c r="R12" t="s">
         <v>9</v>
       </c>
-      <c r="T12" s="59"/>
+      <c r="T12" s="136"/>
       <c r="U12" s="3">
         <v>135</v>
       </c>
@@ -1940,7 +1996,7 @@
       <c r="AA12" t="s">
         <v>9</v>
       </c>
-      <c r="AC12" s="59"/>
+      <c r="AC12" s="136"/>
       <c r="AD12" s="15">
         <v>110</v>
       </c>
@@ -1969,8 +2025,8 @@
       </c>
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B13" s="59"/>
-      <c r="C13" s="81">
+      <c r="B13" s="136"/>
+      <c r="C13" s="70">
         <v>122.5</v>
       </c>
       <c r="D13" s="9">
@@ -1996,7 +2052,7 @@
       <c r="I13" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="59"/>
+      <c r="K13" s="136"/>
       <c r="L13" s="3">
         <v>130</v>
       </c>
@@ -2023,7 +2079,7 @@
       <c r="R13" t="s">
         <v>9</v>
       </c>
-      <c r="T13" s="59"/>
+      <c r="T13" s="136"/>
       <c r="U13" s="3">
         <v>140</v>
       </c>
@@ -2050,11 +2106,11 @@
       <c r="AA13" t="s">
         <v>9</v>
       </c>
-      <c r="AC13" s="59"/>
+      <c r="AC13" s="136"/>
       <c r="AD13" s="15">
         <v>120</v>
       </c>
-      <c r="AE13" s="75">
+      <c r="AE13" s="64">
         <f>$AD$13*AE10*4*7.851/1000</f>
         <v>9.4212000000000007</v>
       </c>
@@ -2079,7 +2135,7 @@
       </c>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B14" s="59"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="3">
         <v>130</v>
       </c>
@@ -2106,7 +2162,7 @@
       <c r="I14" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="59"/>
+      <c r="K14" s="136"/>
       <c r="L14" s="3">
         <v>135</v>
       </c>
@@ -2133,7 +2189,7 @@
       <c r="R14" t="s">
         <v>9</v>
       </c>
-      <c r="T14" s="59"/>
+      <c r="T14" s="136"/>
       <c r="U14" s="3">
         <v>145</v>
       </c>
@@ -2160,7 +2216,7 @@
       <c r="AA14" t="s">
         <v>9</v>
       </c>
-      <c r="AC14" s="59"/>
+      <c r="AC14" s="136"/>
       <c r="AD14" s="15">
         <v>130</v>
       </c>
@@ -2189,7 +2245,7 @@
       </c>
     </row>
     <row r="15" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="60"/>
+      <c r="B15" s="137"/>
       <c r="C15" s="4">
         <v>135</v>
       </c>
@@ -2216,7 +2272,7 @@
       <c r="I15" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="60"/>
+      <c r="K15" s="137"/>
       <c r="L15" s="4">
         <v>140</v>
       </c>
@@ -2243,7 +2299,7 @@
       <c r="R15" t="s">
         <v>9</v>
       </c>
-      <c r="T15" s="60"/>
+      <c r="T15" s="137"/>
       <c r="U15" s="4">
         <v>150</v>
       </c>
@@ -2270,11 +2326,11 @@
       <c r="AA15" t="s">
         <v>9</v>
       </c>
-      <c r="AC15" s="60"/>
+      <c r="AC15" s="137"/>
       <c r="AD15" s="7">
         <v>140</v>
       </c>
-      <c r="AE15" s="76">
+      <c r="AE15" s="65">
         <f>4*$AD$15*AE10*7.851/1000</f>
         <v>10.991400000000001</v>
       </c>
@@ -2373,104 +2429,104 @@
       </c>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="70"/>
-      <c r="AB19" s="70"/>
-      <c r="AC19" s="70"/>
-      <c r="AD19" s="70"/>
-      <c r="AE19" s="70"/>
-      <c r="AF19" s="70"/>
-      <c r="AG19" s="70"/>
-      <c r="AH19" s="70"/>
-      <c r="AI19" s="70"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="59"/>
     </row>
     <row r="20" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="M21" s="61" t="s">
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="140"/>
+      <c r="M21" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="63"/>
-      <c r="V21" s="61" t="s">
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="140"/>
+      <c r="V21" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="63"/>
-      <c r="AE21" s="61" t="s">
+      <c r="W21" s="139"/>
+      <c r="X21" s="139"/>
+      <c r="Y21" s="139"/>
+      <c r="Z21" s="140"/>
+      <c r="AE21" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="63"/>
+      <c r="AF21" s="139"/>
+      <c r="AG21" s="139"/>
+      <c r="AH21" s="139"/>
+      <c r="AI21" s="140"/>
     </row>
     <row r="22" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="66"/>
-      <c r="M23" s="64" t="s">
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="143"/>
+      <c r="M23" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="66"/>
-      <c r="V23" s="64" t="s">
+      <c r="N23" s="142"/>
+      <c r="O23" s="142"/>
+      <c r="P23" s="142"/>
+      <c r="Q23" s="143"/>
+      <c r="V23" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="66"/>
-      <c r="AE23" s="64" t="s">
+      <c r="W23" s="142"/>
+      <c r="X23" s="142"/>
+      <c r="Y23" s="142"/>
+      <c r="Z23" s="143"/>
+      <c r="AE23" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="AF23" s="65"/>
-      <c r="AG23" s="65"/>
-      <c r="AH23" s="65"/>
-      <c r="AI23" s="66"/>
+      <c r="AF23" s="142"/>
+      <c r="AG23" s="142"/>
+      <c r="AH23" s="142"/>
+      <c r="AI23" s="143"/>
     </row>
     <row r="24" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D24" s="6">
@@ -2547,7 +2603,7 @@
       </c>
     </row>
     <row r="25" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="135" t="s">
         <v>81</v>
       </c>
       <c r="C25" s="2">
@@ -2576,7 +2632,7 @@
       <c r="I25" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="58" t="s">
+      <c r="K25" s="135" t="s">
         <v>81</v>
       </c>
       <c r="L25" s="13">
@@ -2605,17 +2661,17 @@
       <c r="R25" t="s">
         <v>10</v>
       </c>
-      <c r="T25" s="58" t="s">
+      <c r="T25" s="135" t="s">
         <v>1</v>
       </c>
       <c r="U25" s="13">
         <v>130</v>
       </c>
-      <c r="V25" s="77">
+      <c r="V25" s="66">
         <f>PI()/32 *($U$25^4 - ($U$25- 2*V24)^4)</f>
         <v>4071246.3702800069</v>
       </c>
-      <c r="W25" s="78">
+      <c r="W25" s="67">
         <f>PI()/32 *($U$25^4 - ($U$25-2*W24)^4)</f>
         <v>4829081.8687059553</v>
       </c>
@@ -2634,13 +2690,13 @@
       <c r="AA25" t="s">
         <v>10</v>
       </c>
-      <c r="AC25" s="58" t="s">
+      <c r="AC25" s="135" t="s">
         <v>4</v>
       </c>
       <c r="AD25" s="13">
         <v>100</v>
       </c>
-      <c r="AE25" s="67">
+      <c r="AE25" s="58">
         <f>1/6*($AD$25^4 - ($AD$25-2*AE24)^4)</f>
         <v>3091562.5</v>
       </c>
@@ -2665,7 +2721,7 @@
       </c>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B26" s="59"/>
+      <c r="B26" s="136"/>
       <c r="C26" s="3">
         <v>120</v>
       </c>
@@ -2692,7 +2748,7 @@
       <c r="I26" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="59"/>
+      <c r="K26" s="136"/>
       <c r="L26" s="15">
         <v>125</v>
       </c>
@@ -2719,7 +2775,7 @@
       <c r="R26" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="59"/>
+      <c r="T26" s="136"/>
       <c r="U26" s="15">
         <v>135</v>
       </c>
@@ -2746,7 +2802,7 @@
       <c r="AA26" t="s">
         <v>10</v>
       </c>
-      <c r="AC26" s="59"/>
+      <c r="AC26" s="136"/>
       <c r="AD26" s="15">
         <v>110</v>
       </c>
@@ -2775,7 +2831,7 @@
       </c>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B27" s="59"/>
+      <c r="B27" s="136"/>
       <c r="C27" s="41">
         <v>122.5</v>
       </c>
@@ -2802,7 +2858,7 @@
       <c r="I27" t="s">
         <v>10</v>
       </c>
-      <c r="K27" s="59"/>
+      <c r="K27" s="136"/>
       <c r="L27" s="15">
         <v>130</v>
       </c>
@@ -2829,7 +2885,7 @@
       <c r="R27" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="59"/>
+      <c r="T27" s="136"/>
       <c r="U27" s="15">
         <v>140</v>
       </c>
@@ -2856,11 +2912,11 @@
       <c r="AA27" t="s">
         <v>10</v>
       </c>
-      <c r="AC27" s="59"/>
+      <c r="AC27" s="136"/>
       <c r="AD27" s="15">
         <v>120</v>
       </c>
-      <c r="AE27" s="72">
+      <c r="AE27" s="61">
         <f>1/6*($AD$27^4 - ($AD$27-2*AE24)^4)</f>
         <v>5409895.833333333</v>
       </c>
@@ -2885,7 +2941,7 @@
       </c>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B28" s="59"/>
+      <c r="B28" s="136"/>
       <c r="C28" s="3">
         <v>130</v>
       </c>
@@ -2912,7 +2968,7 @@
       <c r="I28" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="59"/>
+      <c r="K28" s="136"/>
       <c r="L28" s="15">
         <v>135</v>
       </c>
@@ -2939,7 +2995,7 @@
       <c r="R28" t="s">
         <v>10</v>
       </c>
-      <c r="T28" s="59"/>
+      <c r="T28" s="136"/>
       <c r="U28" s="15">
         <v>145</v>
       </c>
@@ -2966,7 +3022,7 @@
       <c r="AA28" t="s">
         <v>10</v>
       </c>
-      <c r="AC28" s="59"/>
+      <c r="AC28" s="136"/>
       <c r="AD28" s="15">
         <v>130</v>
       </c>
@@ -2995,7 +3051,7 @@
       </c>
     </row>
     <row r="29" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="60"/>
+      <c r="B29" s="137"/>
       <c r="C29" s="4">
         <v>135</v>
       </c>
@@ -3022,7 +3078,7 @@
       <c r="I29" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="60"/>
+      <c r="K29" s="137"/>
       <c r="L29" s="7">
         <v>140</v>
       </c>
@@ -3049,11 +3105,11 @@
       <c r="R29" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="60"/>
+      <c r="T29" s="137"/>
       <c r="U29" s="7">
         <v>150</v>
       </c>
-      <c r="V29" s="79">
+      <c r="V29" s="68">
         <f>PI()/32 *($U$29^4 - ($U$29-2*V24)^4)</f>
         <v>6302758.9020330068</v>
       </c>
@@ -3076,7 +3132,7 @@
       <c r="AA29" t="s">
         <v>10</v>
       </c>
-      <c r="AC29" s="60"/>
+      <c r="AC29" s="137"/>
       <c r="AD29" s="7">
         <v>140</v>
       </c>
@@ -3179,104 +3235,104 @@
       </c>
     </row>
     <row r="34" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="70"/>
-      <c r="R34" s="70"/>
-      <c r="S34" s="70"/>
-      <c r="T34" s="70"/>
-      <c r="U34" s="70"/>
-      <c r="V34" s="70"/>
-      <c r="W34" s="70"/>
-      <c r="X34" s="70"/>
-      <c r="Y34" s="70"/>
-      <c r="Z34" s="70"/>
-      <c r="AA34" s="70"/>
-      <c r="AB34" s="70"/>
-      <c r="AC34" s="70"/>
-      <c r="AD34" s="70"/>
-      <c r="AE34" s="70"/>
-      <c r="AF34" s="70"/>
-      <c r="AG34" s="70"/>
-      <c r="AH34" s="70"/>
-      <c r="AI34" s="70"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="59"/>
     </row>
     <row r="35" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="61" t="s">
+      <c r="D36" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="63"/>
-      <c r="M36" s="61" t="s">
+      <c r="E36" s="139"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="140"/>
+      <c r="M36" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="63"/>
-      <c r="V36" s="61" t="s">
+      <c r="N36" s="139"/>
+      <c r="O36" s="139"/>
+      <c r="P36" s="139"/>
+      <c r="Q36" s="140"/>
+      <c r="V36" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="62"/>
-      <c r="Z36" s="63"/>
-      <c r="AE36" s="61" t="s">
+      <c r="W36" s="139"/>
+      <c r="X36" s="139"/>
+      <c r="Y36" s="139"/>
+      <c r="Z36" s="140"/>
+      <c r="AE36" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AF36" s="62"/>
-      <c r="AG36" s="62"/>
-      <c r="AH36" s="62"/>
-      <c r="AI36" s="63"/>
+      <c r="AF36" s="139"/>
+      <c r="AG36" s="139"/>
+      <c r="AH36" s="139"/>
+      <c r="AI36" s="140"/>
     </row>
     <row r="37" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="66"/>
-      <c r="M38" s="64" t="s">
+      <c r="E38" s="142"/>
+      <c r="F38" s="142"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="143"/>
+      <c r="M38" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="66"/>
-      <c r="V38" s="64" t="s">
+      <c r="N38" s="142"/>
+      <c r="O38" s="142"/>
+      <c r="P38" s="142"/>
+      <c r="Q38" s="143"/>
+      <c r="V38" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="66"/>
-      <c r="AE38" s="64" t="s">
+      <c r="W38" s="142"/>
+      <c r="X38" s="142"/>
+      <c r="Y38" s="142"/>
+      <c r="Z38" s="143"/>
+      <c r="AE38" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="AF38" s="65"/>
-      <c r="AG38" s="65"/>
-      <c r="AH38" s="65"/>
-      <c r="AI38" s="66"/>
+      <c r="AF38" s="142"/>
+      <c r="AG38" s="142"/>
+      <c r="AH38" s="142"/>
+      <c r="AI38" s="143"/>
     </row>
     <row r="39" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D39" s="6">
@@ -3353,7 +3409,7 @@
       </c>
     </row>
     <row r="40" spans="2:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="135" t="s">
         <v>81</v>
       </c>
       <c r="C40" s="2">
@@ -3382,7 +3438,7 @@
       <c r="I40" t="s">
         <v>72</v>
       </c>
-      <c r="K40" s="58" t="s">
+      <c r="K40" s="135" t="s">
         <v>81</v>
       </c>
       <c r="L40" s="2">
@@ -3411,7 +3467,7 @@
       <c r="R40" t="s">
         <v>72</v>
       </c>
-      <c r="T40" s="58" t="s">
+      <c r="T40" s="135" t="s">
         <v>1</v>
       </c>
       <c r="U40" s="13">
@@ -3440,7 +3496,7 @@
       <c r="AA40" t="s">
         <v>72</v>
       </c>
-      <c r="AC40" s="58" t="s">
+      <c r="AC40" s="135" t="s">
         <v>4</v>
       </c>
       <c r="AD40" s="13">
@@ -3471,7 +3527,7 @@
       </c>
     </row>
     <row r="41" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B41" s="59"/>
+      <c r="B41" s="136"/>
       <c r="C41" s="3">
         <v>120</v>
       </c>
@@ -3498,7 +3554,7 @@
       <c r="I41" t="s">
         <v>72</v>
       </c>
-      <c r="K41" s="59"/>
+      <c r="K41" s="136"/>
       <c r="L41" s="3">
         <v>125</v>
       </c>
@@ -3525,7 +3581,7 @@
       <c r="R41" t="s">
         <v>72</v>
       </c>
-      <c r="T41" s="59"/>
+      <c r="T41" s="136"/>
       <c r="U41" s="15">
         <v>135</v>
       </c>
@@ -3552,7 +3608,7 @@
       <c r="AA41" t="s">
         <v>72</v>
       </c>
-      <c r="AC41" s="59"/>
+      <c r="AC41" s="136"/>
       <c r="AD41" s="15">
         <v>110</v>
       </c>
@@ -3581,7 +3637,7 @@
       </c>
     </row>
     <row r="42" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B42" s="59"/>
+      <c r="B42" s="136"/>
       <c r="C42" s="41">
         <v>122.5</v>
       </c>
@@ -3608,7 +3664,7 @@
       <c r="I42" t="s">
         <v>72</v>
       </c>
-      <c r="K42" s="59"/>
+      <c r="K42" s="136"/>
       <c r="L42" s="3">
         <v>130</v>
       </c>
@@ -3635,7 +3691,7 @@
       <c r="R42" t="s">
         <v>72</v>
       </c>
-      <c r="T42" s="59"/>
+      <c r="T42" s="136"/>
       <c r="U42" s="15">
         <v>140</v>
       </c>
@@ -3662,11 +3718,11 @@
       <c r="AA42" t="s">
         <v>72</v>
       </c>
-      <c r="AC42" s="59"/>
+      <c r="AC42" s="136"/>
       <c r="AD42" s="15">
         <v>120</v>
       </c>
-      <c r="AE42" s="73">
+      <c r="AE42" s="62">
         <f t="shared" si="31"/>
         <v>0.57422577095628302</v>
       </c>
@@ -3691,7 +3747,7 @@
       </c>
     </row>
     <row r="43" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B43" s="59"/>
+      <c r="B43" s="136"/>
       <c r="C43" s="3">
         <v>130</v>
       </c>
@@ -3718,7 +3774,7 @@
       <c r="I43" t="s">
         <v>72</v>
       </c>
-      <c r="K43" s="59"/>
+      <c r="K43" s="136"/>
       <c r="L43" s="3">
         <v>135</v>
       </c>
@@ -3745,7 +3801,7 @@
       <c r="R43" t="s">
         <v>72</v>
       </c>
-      <c r="T43" s="59"/>
+      <c r="T43" s="136"/>
       <c r="U43" s="15">
         <v>145</v>
       </c>
@@ -3772,7 +3828,7 @@
       <c r="AA43" t="s">
         <v>72</v>
       </c>
-      <c r="AC43" s="59"/>
+      <c r="AC43" s="136"/>
       <c r="AD43" s="15">
         <v>130</v>
       </c>
@@ -3801,7 +3857,7 @@
       </c>
     </row>
     <row r="44" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="60"/>
+      <c r="B44" s="137"/>
       <c r="C44" s="4">
         <v>135</v>
       </c>
@@ -3828,7 +3884,7 @@
       <c r="I44" t="s">
         <v>72</v>
       </c>
-      <c r="K44" s="60"/>
+      <c r="K44" s="137"/>
       <c r="L44" s="4">
         <v>140</v>
       </c>
@@ -3855,7 +3911,7 @@
       <c r="R44" t="s">
         <v>72</v>
       </c>
-      <c r="T44" s="60"/>
+      <c r="T44" s="137"/>
       <c r="U44" s="7">
         <v>150</v>
       </c>
@@ -3882,7 +3938,7 @@
       <c r="AA44" t="s">
         <v>72</v>
       </c>
-      <c r="AC44" s="60"/>
+      <c r="AC44" s="137"/>
       <c r="AD44" s="7">
         <v>140</v>
       </c>
@@ -4007,13 +4063,13 @@
       <c r="AP53" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="AQ53" s="71" t="s">
+      <c r="AQ53" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AR53" s="71" t="s">
+      <c r="AR53" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AS53" s="71" t="s">
+      <c r="AS53" s="60" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4040,7 +4096,7 @@
         <f>AQ54*80</f>
         <v>700091.93527449993</v>
       </c>
-      <c r="AS54" s="80">
+      <c r="AS54" s="69">
         <f>AO54/AP54/1000000</f>
         <v>0.38203806309175042</v>
       </c>
@@ -4068,7 +4124,7 @@
         <f>AQ55*80</f>
         <v>145903.69998038249</v>
       </c>
-      <c r="AS55" s="80">
+      <c r="AS55" s="69">
         <f t="shared" ref="AS55:AS58" si="40">AO55/AP55/1000000</f>
         <v>0.47975696977416493</v>
       </c>
@@ -4096,7 +4152,7 @@
         <f>AQ56*80</f>
         <v>0</v>
       </c>
-      <c r="AS56" s="80">
+      <c r="AS56" s="69">
         <f t="shared" si="40"/>
         <v>0.50788942858822494</v>
       </c>
@@ -4124,7 +4180,7 @@
         <f>AQ57*80</f>
         <v>14389.45675105346</v>
       </c>
-      <c r="AS57" s="80">
+      <c r="AS57" s="69">
         <f t="shared" si="40"/>
         <v>0.49848298369804317</v>
       </c>
@@ -4152,13 +4208,34 @@
         <f>AQ58*80</f>
         <v>35788.876450970718</v>
       </c>
-      <c r="AS58" s="80">
+      <c r="AS58" s="69">
         <f t="shared" si="40"/>
         <v>0.50922079667859599</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="AE36:AI36"/>
+    <mergeCell ref="AE38:AI38"/>
+    <mergeCell ref="AC40:AC44"/>
+    <mergeCell ref="V36:Z36"/>
+    <mergeCell ref="T40:T44"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="K11:K15"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="K25:K29"/>
+    <mergeCell ref="M36:Q36"/>
+    <mergeCell ref="M38:Q38"/>
+    <mergeCell ref="K40:K44"/>
+    <mergeCell ref="AE23:AI23"/>
+    <mergeCell ref="T11:T15"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="AE9:AI9"/>
+    <mergeCell ref="AC11:AC15"/>
+    <mergeCell ref="AE7:AI7"/>
     <mergeCell ref="B1:AK1"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="D36:H36"/>
@@ -4175,27 +4252,6 @@
     <mergeCell ref="V21:Z21"/>
     <mergeCell ref="AE21:AI21"/>
     <mergeCell ref="V23:Z23"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="T11:T15"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="AE9:AI9"/>
-    <mergeCell ref="AC11:AC15"/>
-    <mergeCell ref="AE7:AI7"/>
-    <mergeCell ref="T40:T44"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="K11:K15"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="K25:K29"/>
-    <mergeCell ref="M36:Q36"/>
-    <mergeCell ref="M38:Q38"/>
-    <mergeCell ref="K40:K44"/>
-    <mergeCell ref="AE36:AI36"/>
-    <mergeCell ref="AE38:AI38"/>
-    <mergeCell ref="AC40:AC44"/>
-    <mergeCell ref="V36:Z36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4215,2098 +4271,3776 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="83"/>
-    <col min="2" max="2" width="20" style="83" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="8.88671875" style="83"/>
-    <col min="11" max="11" width="20" style="83" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="83" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="8.88671875" style="83"/>
-    <col min="20" max="20" width="20" style="83" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" style="83" bestFit="1" customWidth="1"/>
-    <col min="22" max="32" width="8.88671875" style="83"/>
-    <col min="33" max="33" width="12.44140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.33203125" style="83" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.33203125" style="83" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.88671875" style="83"/>
+    <col min="1" max="1" width="8.88671875" style="71"/>
+    <col min="2" max="2" width="20" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="8.88671875" style="71"/>
+    <col min="11" max="11" width="20" style="71" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="8.88671875" style="71"/>
+    <col min="20" max="20" width="20" style="71" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" style="71" bestFit="1" customWidth="1"/>
+    <col min="22" max="32" width="8.88671875" style="71"/>
+    <col min="33" max="33" width="12.44140625" style="71" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.33203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.33203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.88671875" style="71"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:36" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="148"/>
+      <c r="AJ1" s="148"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="83" t="s">
+      <c r="N3" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="83" t="s">
+      <c r="T3" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="W3" s="83" t="s">
+      <c r="W3" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="AC3" s="83" t="s">
+      <c r="AC3" s="71" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="G5" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="87" t="s">
+      <c r="K5" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="88" t="s">
+      <c r="L5" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="88" t="s">
+      <c r="M5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="88" t="s">
+      <c r="N5" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="88" t="s">
+      <c r="O5" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="89" t="s">
+      <c r="P5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="90" t="s">
+      <c r="Q5" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="T5" s="87" t="s">
+      <c r="T5" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="U5" s="88" t="s">
+      <c r="U5" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="88" t="s">
+      <c r="V5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="W5" s="88" t="s">
+      <c r="W5" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="X5" s="88" t="s">
+      <c r="X5" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="89" t="s">
+      <c r="Y5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="Z5" s="90" t="s">
+      <c r="Z5" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="AC5" s="91" t="s">
+      <c r="AC5" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="AD5" s="92" t="s">
+      <c r="AD5" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="AE5" s="92" t="s">
+      <c r="AE5" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="AF5" s="92" t="s">
+      <c r="AF5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="AG5" s="92" t="s">
+      <c r="AG5" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="AH5" s="92" t="s">
+      <c r="AH5" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="AI5" s="93" t="s">
+      <c r="AI5" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="AJ5" s="94" t="s">
+      <c r="AJ5" s="82" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="96">
+      <c r="D6" s="83">
         <v>7.1</v>
       </c>
-      <c r="E6" s="96">
+      <c r="E6" s="83">
         <v>322</v>
       </c>
-      <c r="F6" s="96">
+      <c r="F6" s="83">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G6" s="97">
+      <c r="G6" s="84">
         <f>E6/D6</f>
         <v>45.352112676056343</v>
       </c>
-      <c r="H6" s="98">
+      <c r="H6" s="85">
         <f>F6/D6</f>
         <v>1.295774647887324</v>
       </c>
-      <c r="K6" s="99" t="s">
+      <c r="K6" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="100" t="s">
+      <c r="L6" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="101">
+      <c r="M6" s="87">
         <v>9.56</v>
       </c>
-      <c r="N6" s="101">
+      <c r="N6" s="87">
         <v>192</v>
       </c>
-      <c r="O6" s="101">
+      <c r="O6" s="87">
         <v>26.7</v>
       </c>
-      <c r="P6" s="102">
+      <c r="P6" s="88">
         <f>N6/M6</f>
         <v>20.0836820083682</v>
       </c>
-      <c r="Q6" s="103">
+      <c r="Q6" s="89">
         <f>O6/M6</f>
         <v>2.7928870292887029</v>
       </c>
-      <c r="T6" s="104" t="s">
+      <c r="T6" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="U6" s="100">
+      <c r="U6" s="86">
         <v>2</v>
       </c>
-      <c r="V6" s="101">
+      <c r="V6" s="87">
         <v>6.0890000000000004</v>
       </c>
-      <c r="W6" s="101">
+      <c r="W6" s="87">
         <v>300.39</v>
       </c>
-      <c r="X6" s="101">
+      <c r="X6" s="87">
         <v>110.6</v>
       </c>
-      <c r="Y6" s="102">
+      <c r="Y6" s="88">
         <f>W6/V6</f>
         <v>49.33322384628017</v>
       </c>
-      <c r="Z6" s="103">
+      <c r="Z6" s="89">
         <f>X6/V6</f>
         <v>18.163902118574477</v>
       </c>
-      <c r="AC6" s="105">
+      <c r="AC6" s="91">
         <v>100</v>
       </c>
-      <c r="AD6" s="106">
+      <c r="AD6" s="92">
         <v>50</v>
       </c>
-      <c r="AE6" s="106">
+      <c r="AE6" s="92">
         <v>2.5</v>
       </c>
-      <c r="AF6" s="106">
+      <c r="AF6" s="92">
         <f>2*AE6*(AC6+AD6-2*AE6)*7.86/1000</f>
         <v>5.6985000000000001</v>
       </c>
-      <c r="AG6" s="107">
+      <c r="AG6" s="93">
         <f>1/12 *((AD6*AC6^3)   -  ((AD6-2*AE6)*(AC6-2*AE6)^3)        )/10000</f>
         <v>95.151041666666657</v>
       </c>
-      <c r="AH6" s="107">
+      <c r="AH6" s="93">
         <f>1/12 *(((AD6^3) * AC6)    -  ((AD6-2*AE6)^3) * (AC6-2*AE6)      )/10000</f>
         <v>32.026041666666664</v>
       </c>
-      <c r="AI6" s="108">
+      <c r="AI6" s="94">
         <f>AG6/AF6</f>
         <v>16.69755929923079</v>
       </c>
-      <c r="AJ6" s="109">
+      <c r="AJ6" s="95">
         <f>AH6/AF6</f>
         <v>5.6200827703196738</v>
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B7" s="110"/>
-      <c r="C7" s="111" t="s">
+      <c r="B7" s="145"/>
+      <c r="C7" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="111">
+      <c r="D7" s="96">
         <v>9.9</v>
       </c>
-      <c r="E7" s="111">
+      <c r="E7" s="96">
         <v>781</v>
       </c>
-      <c r="F7" s="111">
+      <c r="F7" s="96">
         <v>17.3</v>
       </c>
-      <c r="G7" s="112">
+      <c r="G7" s="97">
         <f>E7/D7</f>
         <v>78.888888888888886</v>
       </c>
-      <c r="H7" s="113">
+      <c r="H7" s="98">
         <f>F7/D7</f>
         <v>1.7474747474747474</v>
       </c>
-      <c r="K7" s="114"/>
-      <c r="L7" s="115" t="s">
+      <c r="K7" s="151"/>
+      <c r="L7" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="96">
+      <c r="M7" s="83">
         <v>16.8</v>
       </c>
-      <c r="N7" s="96">
+      <c r="N7" s="83">
         <v>788</v>
       </c>
-      <c r="O7" s="96">
+      <c r="O7" s="83">
         <v>103</v>
       </c>
-      <c r="P7" s="97">
+      <c r="P7" s="84">
         <f>N7/M7</f>
         <v>46.904761904761905</v>
       </c>
-      <c r="Q7" s="98">
+      <c r="Q7" s="85">
         <f>O7/M7</f>
         <v>6.1309523809523805</v>
       </c>
-      <c r="T7" s="116"/>
-      <c r="U7" s="117">
+      <c r="T7" s="100"/>
+      <c r="U7" s="101">
         <v>3.15</v>
       </c>
-      <c r="V7" s="96">
+      <c r="V7" s="83">
         <v>9.4</v>
       </c>
-      <c r="W7" s="96">
+      <c r="W7" s="83">
         <v>455.09</v>
       </c>
-      <c r="X7" s="96">
+      <c r="X7" s="83">
         <v>165.26</v>
       </c>
-      <c r="Y7" s="97">
+      <c r="Y7" s="84">
         <f>W7/V7</f>
         <v>48.413829787234036</v>
       </c>
-      <c r="Z7" s="98">
+      <c r="Z7" s="85">
         <f>X7/V7</f>
         <v>17.580851063829787</v>
       </c>
-      <c r="AC7" s="118">
+      <c r="AC7" s="102">
         <v>120</v>
       </c>
-      <c r="AD7" s="119">
+      <c r="AD7" s="103">
         <v>50</v>
       </c>
-      <c r="AE7" s="119">
+      <c r="AE7" s="103">
         <v>2.5</v>
       </c>
-      <c r="AF7" s="119">
+      <c r="AF7" s="103">
         <f t="shared" ref="AF7:AF32" si="0">2*AE7*(AC7+AD7-2*AE7)*7.86/1000</f>
         <v>6.4844999999999997</v>
       </c>
-      <c r="AG7" s="120">
+      <c r="AG7" s="104">
         <f t="shared" ref="AG7:AG32" si="1">1/12 *((AD7*AC7^3)   -  ((AD7-2*AE7)*(AC7-2*AE7)^3)        )/10000</f>
         <v>149.671875</v>
       </c>
-      <c r="AH7" s="120">
+      <c r="AH7" s="104">
         <f t="shared" ref="AH7:AH32" si="2">1/12 *(((AD7^3) * AC7)    -  ((AD7-2*AE7)^3) * (AC7-2*AE7)      )/10000</f>
         <v>37.671875</v>
       </c>
-      <c r="AI7" s="121">
+      <c r="AI7" s="105">
         <f t="shared" ref="AI7:AI32" si="3">AG7/AF7</f>
         <v>23.081482766597272</v>
       </c>
-      <c r="AJ7" s="122">
+      <c r="AJ7" s="106">
         <f t="shared" ref="AJ7:AJ32" si="4">AH7/AF7</f>
         <v>5.8095265633433577</v>
       </c>
     </row>
     <row r="8" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="123"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="125" t="s">
+      <c r="B8" s="107"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="85"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="111">
+      <c r="M8" s="96">
         <v>22.3</v>
       </c>
-      <c r="N8" s="111">
+      <c r="N8" s="96">
         <v>1830</v>
       </c>
-      <c r="O8" s="111">
+      <c r="O8" s="96">
         <v>141</v>
       </c>
-      <c r="P8" s="112">
+      <c r="P8" s="97">
         <f>N8/M8</f>
         <v>82.062780269058294</v>
       </c>
-      <c r="Q8" s="113">
+      <c r="Q8" s="98">
         <f>O8/M8</f>
         <v>6.3228699551569507</v>
       </c>
-      <c r="T8" s="126"/>
-      <c r="U8" s="125">
+      <c r="T8" s="109"/>
+      <c r="U8" s="108">
         <v>4</v>
       </c>
-      <c r="V8" s="111">
+      <c r="V8" s="96">
         <v>11.76</v>
       </c>
-      <c r="W8" s="111">
+      <c r="W8" s="96">
         <v>561.29999999999995</v>
       </c>
-      <c r="X8" s="111">
+      <c r="X8" s="96">
         <v>201.69</v>
       </c>
-      <c r="Y8" s="112">
+      <c r="Y8" s="97">
         <f>W8/V8</f>
         <v>47.729591836734691</v>
       </c>
-      <c r="Z8" s="113">
+      <c r="Z8" s="98">
         <f>X8/V8</f>
         <v>17.150510204081634</v>
       </c>
-      <c r="AC8" s="127">
+      <c r="AC8" s="110">
         <v>140</v>
       </c>
-      <c r="AD8" s="128">
+      <c r="AD8" s="111">
         <v>50</v>
       </c>
-      <c r="AE8" s="128">
+      <c r="AE8" s="111">
         <v>2.5</v>
       </c>
-      <c r="AF8" s="128">
+      <c r="AF8" s="111">
         <f t="shared" si="0"/>
         <v>7.2705000000000002</v>
       </c>
-      <c r="AG8" s="129">
+      <c r="AG8" s="112">
         <f t="shared" si="1"/>
         <v>220.69270833333331</v>
       </c>
-      <c r="AH8" s="129">
+      <c r="AH8" s="112">
         <f t="shared" si="2"/>
         <v>43.317708333333329</v>
       </c>
-      <c r="AI8" s="130">
+      <c r="AI8" s="113">
         <f t="shared" si="3"/>
         <v>30.35454347477248</v>
       </c>
-      <c r="AJ8" s="131">
+      <c r="AJ8" s="114">
         <f t="shared" si="4"/>
         <v>5.9580095362538099</v>
       </c>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="101">
+      <c r="D9" s="87">
         <v>8</v>
       </c>
-      <c r="E9" s="101">
+      <c r="E9" s="87">
         <v>168</v>
       </c>
-      <c r="F9" s="101">
+      <c r="F9" s="87">
         <v>12.7</v>
       </c>
-      <c r="G9" s="102">
+      <c r="G9" s="88">
         <f>E9/D9</f>
         <v>21</v>
       </c>
-      <c r="H9" s="103">
+      <c r="H9" s="89">
         <f>F9/D9</f>
         <v>1.5874999999999999</v>
       </c>
-      <c r="K9" s="116"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="98"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="115"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="97"/>
-      <c r="Z9" s="98"/>
-      <c r="AC9" s="105">
+      <c r="K9" s="100"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="85"/>
+      <c r="T9" s="100"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="85"/>
+      <c r="AC9" s="91">
         <v>100</v>
       </c>
-      <c r="AD9" s="106">
+      <c r="AD9" s="92">
         <v>60</v>
       </c>
-      <c r="AE9" s="106">
+      <c r="AE9" s="92">
         <v>2.5</v>
       </c>
-      <c r="AF9" s="106">
+      <c r="AF9" s="92">
         <f t="shared" si="0"/>
         <v>6.0914999999999999</v>
       </c>
-      <c r="AG9" s="107">
+      <c r="AG9" s="93">
         <f t="shared" si="1"/>
         <v>107.03645833333333</v>
       </c>
-      <c r="AH9" s="107">
+      <c r="AH9" s="93">
         <f t="shared" si="2"/>
         <v>48.286458333333329</v>
       </c>
-      <c r="AI9" s="108">
+      <c r="AI9" s="94">
         <f t="shared" si="3"/>
         <v>17.571445183178746</v>
       </c>
-      <c r="AJ9" s="109">
+      <c r="AJ9" s="95">
         <f t="shared" si="4"/>
         <v>7.9268584639798618</v>
       </c>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B10" s="133"/>
-      <c r="C10" s="96" t="s">
+      <c r="B10" s="147"/>
+      <c r="C10" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="96">
+      <c r="D10" s="83">
         <v>14.2</v>
       </c>
-      <c r="E10" s="96">
+      <c r="E10" s="83">
         <v>690</v>
       </c>
-      <c r="F10" s="96">
+      <c r="F10" s="83">
         <v>55.2</v>
       </c>
-      <c r="G10" s="97">
+      <c r="G10" s="84">
         <f>E10/D10</f>
         <v>48.591549295774648</v>
       </c>
-      <c r="H10" s="98">
+      <c r="H10" s="85">
         <f>F10/D10</f>
         <v>3.8873239436619724</v>
       </c>
-      <c r="K10" s="99" t="s">
+      <c r="K10" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="100" t="s">
+      <c r="L10" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="101">
+      <c r="M10" s="87">
         <v>9.56</v>
       </c>
-      <c r="N10" s="101">
+      <c r="N10" s="87">
         <v>194</v>
       </c>
-      <c r="O10" s="101">
+      <c r="O10" s="87">
         <v>29.4</v>
       </c>
-      <c r="P10" s="102">
+      <c r="P10" s="88">
         <f>N10/M10</f>
         <v>20.292887029288703</v>
       </c>
-      <c r="Q10" s="103">
+      <c r="Q10" s="89">
         <f>O10/M10</f>
         <v>3.0753138075313804</v>
       </c>
-      <c r="T10" s="104" t="s">
+      <c r="T10" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="U10" s="100">
+      <c r="U10" s="86">
         <v>2</v>
       </c>
-      <c r="V10" s="101">
+      <c r="V10" s="87">
         <v>5.931</v>
       </c>
-      <c r="W10" s="101">
+      <c r="W10" s="87">
         <v>390.32</v>
       </c>
-      <c r="X10" s="101">
+      <c r="X10" s="87">
         <v>96.35</v>
       </c>
-      <c r="Y10" s="102">
+      <c r="Y10" s="88">
         <f>W10/V10</f>
         <v>65.810150059011974</v>
       </c>
-      <c r="Z10" s="103">
+      <c r="Z10" s="89">
         <f>X10/V10</f>
         <v>16.245152588096442</v>
       </c>
-      <c r="AC10" s="118">
+      <c r="AC10" s="102">
         <v>120</v>
       </c>
-      <c r="AD10" s="119">
+      <c r="AD10" s="103">
         <v>60</v>
       </c>
-      <c r="AE10" s="119">
+      <c r="AE10" s="103">
         <v>2.5</v>
       </c>
-      <c r="AF10" s="119">
+      <c r="AF10" s="103">
         <f t="shared" si="0"/>
         <v>6.8775000000000004</v>
       </c>
-      <c r="AG10" s="120">
+      <c r="AG10" s="104">
         <f t="shared" si="1"/>
         <v>166.93229166666666</v>
       </c>
-      <c r="AH10" s="120">
+      <c r="AH10" s="104">
         <f t="shared" si="2"/>
         <v>56.557291666666664</v>
       </c>
-      <c r="AI10" s="121">
+      <c r="AI10" s="105">
         <f t="shared" si="3"/>
         <v>24.27223433902823</v>
       </c>
-      <c r="AJ10" s="122">
+      <c r="AJ10" s="106">
         <f t="shared" si="4"/>
         <v>8.2235247788682901</v>
       </c>
     </row>
     <row r="11" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="133"/>
-      <c r="C11" s="96" t="s">
+      <c r="B11" s="147"/>
+      <c r="C11" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="96">
+      <c r="D11" s="83">
         <v>19.8</v>
       </c>
-      <c r="E11" s="96">
+      <c r="E11" s="83">
         <v>1700</v>
       </c>
-      <c r="F11" s="96">
+      <c r="F11" s="83">
         <v>115</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="84">
         <f>E11/D11</f>
         <v>85.858585858585855</v>
       </c>
-      <c r="H11" s="98">
+      <c r="H11" s="85">
         <f>F11/D11</f>
         <v>5.808080808080808</v>
       </c>
-      <c r="K11" s="114"/>
-      <c r="L11" s="115" t="s">
+      <c r="K11" s="151"/>
+      <c r="L11" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="134">
+      <c r="M11" s="115">
         <v>16.8</v>
       </c>
-      <c r="N11" s="134">
+      <c r="N11" s="115">
         <v>794</v>
       </c>
-      <c r="O11" s="134">
+      <c r="O11" s="115">
         <v>120</v>
       </c>
-      <c r="P11" s="97">
+      <c r="P11" s="84">
         <f>N11/M11</f>
         <v>47.261904761904759</v>
       </c>
-      <c r="Q11" s="98">
+      <c r="Q11" s="85">
         <f>O11/M11</f>
         <v>7.1428571428571423</v>
       </c>
-      <c r="T11" s="116"/>
-      <c r="U11" s="117">
+      <c r="T11" s="100"/>
+      <c r="U11" s="101">
         <v>3.15</v>
       </c>
-      <c r="V11" s="134">
+      <c r="V11" s="115">
         <v>9.1539999999999999</v>
       </c>
-      <c r="W11" s="134">
+      <c r="W11" s="115">
         <v>591.16999999999996</v>
       </c>
-      <c r="X11" s="134">
+      <c r="X11" s="115">
         <v>102.8</v>
       </c>
-      <c r="Y11" s="97">
+      <c r="Y11" s="84">
         <f>W11/V11</f>
         <v>64.58051125191173</v>
       </c>
-      <c r="Z11" s="98">
+      <c r="Z11" s="85">
         <f>X11/V11</f>
         <v>11.23006336027966</v>
       </c>
-      <c r="AC11" s="135">
+      <c r="AC11" s="116">
         <v>140</v>
       </c>
-      <c r="AD11" s="136">
+      <c r="AD11" s="117">
         <v>60</v>
       </c>
-      <c r="AE11" s="136">
+      <c r="AE11" s="117">
         <v>2.5</v>
       </c>
-      <c r="AF11" s="136">
+      <c r="AF11" s="117">
         <f t="shared" si="0"/>
         <v>7.6635</v>
       </c>
-      <c r="AG11" s="137">
+      <c r="AG11" s="118">
         <f t="shared" si="1"/>
         <v>244.328125</v>
       </c>
-      <c r="AH11" s="137">
+      <c r="AH11" s="118">
         <f t="shared" si="2"/>
         <v>64.828125</v>
       </c>
-      <c r="AI11" s="138">
+      <c r="AI11" s="119">
         <f t="shared" si="3"/>
         <v>31.882054544268286</v>
       </c>
-      <c r="AJ11" s="139">
+      <c r="AJ11" s="120">
         <f t="shared" si="4"/>
         <v>8.4593364650616554</v>
       </c>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B12" s="133"/>
-      <c r="C12" s="96" t="s">
+      <c r="B12" s="147"/>
+      <c r="C12" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="96">
+      <c r="D12" s="83">
         <v>27.9</v>
       </c>
-      <c r="E12" s="96">
+      <c r="E12" s="83">
         <v>3720</v>
       </c>
-      <c r="F12" s="96">
+      <c r="F12" s="83">
         <v>193</v>
       </c>
-      <c r="G12" s="97">
+      <c r="G12" s="84">
         <f>E12/D12</f>
         <v>133.33333333333334</v>
       </c>
-      <c r="H12" s="98">
+      <c r="H12" s="85">
         <f>F12/D12</f>
         <v>6.9175627240143376</v>
       </c>
-      <c r="K12" s="124"/>
-      <c r="L12" s="125" t="s">
+      <c r="K12" s="152"/>
+      <c r="L12" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="M12" s="111">
+      <c r="M12" s="96">
         <v>22.3</v>
       </c>
-      <c r="N12" s="111">
+      <c r="N12" s="96">
         <v>1840</v>
       </c>
-      <c r="O12" s="111">
+      <c r="O12" s="96">
         <v>156</v>
       </c>
-      <c r="P12" s="112">
+      <c r="P12" s="97">
         <f>N12/M12</f>
         <v>82.511210762331842</v>
       </c>
-      <c r="Q12" s="113">
+      <c r="Q12" s="98">
         <f>O12/M12</f>
         <v>6.9955156950672643</v>
       </c>
-      <c r="T12" s="126"/>
-      <c r="U12" s="125">
+      <c r="T12" s="109"/>
+      <c r="U12" s="108">
         <v>4</v>
       </c>
-      <c r="V12" s="111">
+      <c r="V12" s="96">
         <v>11.449</v>
       </c>
-      <c r="W12" s="111">
+      <c r="W12" s="96">
         <v>782.88</v>
       </c>
-      <c r="X12" s="111">
+      <c r="X12" s="96">
         <v>124.67</v>
       </c>
-      <c r="Y12" s="112">
+      <c r="Y12" s="97">
         <f>W12/V12</f>
         <v>68.379771159053192</v>
       </c>
-      <c r="Z12" s="113">
+      <c r="Z12" s="98">
         <f>X12/V12</f>
         <v>10.88916062538213</v>
       </c>
-      <c r="AC12" s="105">
+      <c r="AC12" s="91">
         <v>100</v>
       </c>
-      <c r="AD12" s="106">
+      <c r="AD12" s="92">
         <v>80</v>
       </c>
-      <c r="AE12" s="106">
+      <c r="AE12" s="92">
         <v>2.5</v>
       </c>
-      <c r="AF12" s="106">
+      <c r="AF12" s="92">
         <f t="shared" si="0"/>
         <v>6.8775000000000004</v>
       </c>
-      <c r="AG12" s="107">
+      <c r="AG12" s="93">
         <f t="shared" si="1"/>
         <v>130.80729166666666</v>
       </c>
-      <c r="AH12" s="107">
+      <c r="AH12" s="93">
         <f t="shared" si="2"/>
         <v>92.682291666666657</v>
       </c>
-      <c r="AI12" s="108">
+      <c r="AI12" s="94">
         <f t="shared" si="3"/>
         <v>19.019598933721067</v>
       </c>
-      <c r="AJ12" s="109">
+      <c r="AJ12" s="95">
         <f t="shared" si="4"/>
         <v>13.476160184175448</v>
       </c>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B13" s="110"/>
-      <c r="C13" s="111" t="s">
+      <c r="B13" s="145"/>
+      <c r="C13" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="111">
+      <c r="D13" s="96">
         <v>37.700000000000003</v>
       </c>
-      <c r="E13" s="111">
+      <c r="E13" s="96">
         <v>7330</v>
       </c>
-      <c r="F13" s="111">
+      <c r="F13" s="96">
         <v>376</v>
       </c>
-      <c r="G13" s="112">
+      <c r="G13" s="97">
         <f>E13/D13</f>
         <v>194.42970822281166</v>
       </c>
-      <c r="H13" s="113">
+      <c r="H13" s="98">
         <f>F13/D13</f>
         <v>9.9734748010610073</v>
       </c>
-      <c r="K13" s="116"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="98"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="115"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="98"/>
-      <c r="AC13" s="118">
+      <c r="K13" s="100"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="85"/>
+      <c r="T13" s="100"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="85"/>
+      <c r="AC13" s="102">
         <v>120</v>
       </c>
-      <c r="AD13" s="119">
+      <c r="AD13" s="103">
         <v>80</v>
       </c>
-      <c r="AE13" s="119">
+      <c r="AE13" s="103">
         <v>2.5</v>
       </c>
-      <c r="AF13" s="119">
+      <c r="AF13" s="103">
         <f t="shared" si="0"/>
         <v>7.6635</v>
       </c>
-      <c r="AG13" s="120">
+      <c r="AG13" s="104">
         <f t="shared" si="1"/>
         <v>201.453125</v>
       </c>
-      <c r="AH13" s="120">
+      <c r="AH13" s="104">
         <f t="shared" si="2"/>
         <v>107.703125</v>
       </c>
-      <c r="AI13" s="121">
+      <c r="AI13" s="105">
         <f t="shared" si="3"/>
         <v>26.287352384680631</v>
       </c>
-      <c r="AJ13" s="122">
+      <c r="AJ13" s="106">
         <f t="shared" si="4"/>
         <v>14.054038624649312</v>
       </c>
     </row>
     <row r="14" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="123"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
-      <c r="K14" s="99" t="s">
+      <c r="B14" s="107"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
+      <c r="K14" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="100" t="s">
+      <c r="L14" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="101">
+      <c r="M14" s="87">
         <v>5.8</v>
       </c>
-      <c r="N14" s="101">
+      <c r="N14" s="87">
         <v>124</v>
       </c>
-      <c r="O14" s="101">
+      <c r="O14" s="87">
         <v>14.9</v>
       </c>
-      <c r="P14" s="102">
+      <c r="P14" s="88">
         <f>N14/M14</f>
         <v>21.379310344827587</v>
       </c>
-      <c r="Q14" s="103">
+      <c r="Q14" s="89">
         <f>O14/M14</f>
         <v>2.5689655172413794</v>
       </c>
-      <c r="T14" s="104" t="s">
+      <c r="T14" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="U14" s="100">
+      <c r="U14" s="86">
         <v>2</v>
       </c>
-      <c r="V14" s="101">
+      <c r="V14" s="87">
         <v>4.6719999999999997</v>
       </c>
-      <c r="W14" s="101">
+      <c r="W14" s="87">
         <v>249.61</v>
       </c>
-      <c r="X14" s="101">
+      <c r="X14" s="87">
         <v>20.27</v>
       </c>
-      <c r="Y14" s="102">
+      <c r="Y14" s="88">
         <f>W14/V14</f>
         <v>53.426797945205486</v>
       </c>
-      <c r="Z14" s="103">
+      <c r="Z14" s="89">
         <f>X14/V14</f>
         <v>4.3386130136986303</v>
       </c>
-      <c r="AC14" s="127">
+      <c r="AC14" s="110">
         <v>140</v>
       </c>
-      <c r="AD14" s="128">
+      <c r="AD14" s="111">
         <v>80</v>
       </c>
-      <c r="AE14" s="128">
+      <c r="AE14" s="111">
         <v>2.5</v>
       </c>
-      <c r="AF14" s="128">
+      <c r="AF14" s="111">
         <f t="shared" si="0"/>
         <v>8.4495000000000005</v>
       </c>
-      <c r="AG14" s="129">
+      <c r="AG14" s="112">
         <f t="shared" si="1"/>
         <v>291.59895833333331</v>
       </c>
-      <c r="AH14" s="129">
+      <c r="AH14" s="112">
         <f t="shared" si="2"/>
         <v>122.72395833333333</v>
       </c>
-      <c r="AI14" s="130">
+      <c r="AI14" s="113">
         <f t="shared" si="3"/>
         <v>34.510794524330827</v>
       </c>
-      <c r="AJ14" s="131">
+      <c r="AJ14" s="114">
         <f t="shared" si="4"/>
         <v>14.524404797128033</v>
       </c>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="101">
+      <c r="D15" s="87">
         <v>8.9</v>
       </c>
-      <c r="E15" s="101">
+      <c r="E15" s="87">
         <v>183</v>
       </c>
-      <c r="F15" s="101">
+      <c r="F15" s="87">
         <v>12.9</v>
       </c>
-      <c r="G15" s="102">
+      <c r="G15" s="88">
         <f>E15/D15</f>
         <v>20.561797752808989</v>
       </c>
-      <c r="H15" s="103">
+      <c r="H15" s="89">
         <f>F15/D15</f>
         <v>1.449438202247191</v>
       </c>
-      <c r="K15" s="114"/>
-      <c r="L15" s="115" t="s">
+      <c r="K15" s="151"/>
+      <c r="L15" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="134">
+      <c r="M15" s="115">
         <v>9.9</v>
       </c>
-      <c r="N15" s="134">
+      <c r="N15" s="115">
         <v>472</v>
       </c>
-      <c r="O15" s="134">
+      <c r="O15" s="115">
         <v>37.9</v>
       </c>
-      <c r="P15" s="97">
+      <c r="P15" s="84">
         <f>N15/M15</f>
         <v>47.676767676767675</v>
       </c>
-      <c r="Q15" s="98">
+      <c r="Q15" s="85">
         <f>O15/M15</f>
         <v>3.8282828282828278</v>
       </c>
-      <c r="T15" s="116"/>
-      <c r="U15" s="115">
+      <c r="T15" s="100"/>
+      <c r="U15" s="99">
         <v>3.15</v>
       </c>
-      <c r="V15" s="134">
+      <c r="V15" s="115">
         <v>7.1710000000000003</v>
       </c>
-      <c r="W15" s="134">
+      <c r="W15" s="115">
         <v>373.96</v>
       </c>
-      <c r="X15" s="134">
+      <c r="X15" s="115">
         <v>29.12</v>
       </c>
-      <c r="Y15" s="97">
+      <c r="Y15" s="84">
         <f>W15/V15</f>
         <v>52.148933203179467</v>
       </c>
-      <c r="Z15" s="98">
+      <c r="Z15" s="85">
         <f>X15/V15</f>
         <v>4.0608004462418075</v>
       </c>
-      <c r="AC15" s="105">
+      <c r="AC15" s="91">
         <v>100</v>
       </c>
-      <c r="AD15" s="106">
+      <c r="AD15" s="92">
         <v>50</v>
       </c>
-      <c r="AE15" s="106">
+      <c r="AE15" s="92">
         <v>5</v>
       </c>
-      <c r="AF15" s="106">
+      <c r="AF15" s="92">
         <f t="shared" si="0"/>
         <v>11.004</v>
       </c>
-      <c r="AG15" s="107">
+      <c r="AG15" s="93">
         <f t="shared" si="1"/>
         <v>173.66666666666666</v>
       </c>
-      <c r="AH15" s="107">
+      <c r="AH15" s="93">
         <f t="shared" si="2"/>
         <v>56.166666666666664</v>
       </c>
-      <c r="AI15" s="108">
+      <c r="AI15" s="94">
         <f t="shared" si="3"/>
         <v>15.782139827941354</v>
       </c>
-      <c r="AJ15" s="109">
+      <c r="AJ15" s="95">
         <f t="shared" si="4"/>
         <v>5.1042045316854479</v>
       </c>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B16" s="133"/>
-      <c r="C16" s="96" t="s">
+      <c r="B16" s="147"/>
+      <c r="C16" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="96">
+      <c r="D16" s="83">
         <v>15</v>
       </c>
-      <c r="E16" s="96">
+      <c r="E16" s="83">
         <v>718</v>
       </c>
-      <c r="F16" s="96">
+      <c r="F16" s="83">
         <v>46.8</v>
       </c>
-      <c r="G16" s="97">
+      <c r="G16" s="84">
         <f>E16/D16</f>
         <v>47.866666666666667</v>
       </c>
-      <c r="H16" s="98">
+      <c r="H16" s="85">
         <f>F16/D16</f>
         <v>3.1199999999999997</v>
       </c>
-      <c r="K16" s="124"/>
-      <c r="L16" s="125" t="s">
+      <c r="K16" s="152"/>
+      <c r="L16" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="111">
+      <c r="M16" s="96">
         <v>14</v>
       </c>
-      <c r="N16" s="111">
+      <c r="N16" s="96">
         <v>1160</v>
       </c>
-      <c r="O16" s="111">
+      <c r="O16" s="96">
         <v>84.2</v>
       </c>
-      <c r="P16" s="112">
+      <c r="P16" s="97">
         <f>N16/M16</f>
         <v>82.857142857142861</v>
       </c>
-      <c r="Q16" s="113">
+      <c r="Q16" s="98">
         <f>O16/M16</f>
         <v>6.0142857142857142</v>
       </c>
-      <c r="T16" s="126"/>
-      <c r="U16" s="140">
+      <c r="T16" s="109"/>
+      <c r="U16" s="121">
         <v>4</v>
       </c>
-      <c r="V16" s="111">
+      <c r="V16" s="96">
         <v>8.93</v>
       </c>
-      <c r="W16" s="111">
+      <c r="W16" s="96">
         <v>456.58</v>
       </c>
-      <c r="X16" s="111">
+      <c r="X16" s="96">
         <v>34.47</v>
       </c>
-      <c r="Y16" s="112">
+      <c r="Y16" s="97">
         <f>W16/V16</f>
         <v>51.128779395296753</v>
       </c>
-      <c r="Z16" s="113">
+      <c r="Z16" s="98">
         <f>X16/V16</f>
         <v>3.8600223964165732</v>
       </c>
-      <c r="AC16" s="118">
+      <c r="AC16" s="102">
         <v>120</v>
       </c>
-      <c r="AD16" s="119">
+      <c r="AD16" s="103">
         <v>50</v>
       </c>
-      <c r="AE16" s="119">
+      <c r="AE16" s="103">
         <v>5</v>
       </c>
-      <c r="AF16" s="119">
+      <c r="AF16" s="103">
         <f t="shared" si="0"/>
         <v>12.576000000000001</v>
       </c>
-      <c r="AG16" s="120">
+      <c r="AG16" s="104">
         <f t="shared" si="1"/>
         <v>276.33333333333331</v>
       </c>
-      <c r="AH16" s="120">
+      <c r="AH16" s="104">
         <f t="shared" si="2"/>
         <v>66.333333333333329</v>
       </c>
-      <c r="AI16" s="121">
+      <c r="AI16" s="105">
         <f t="shared" si="3"/>
         <v>21.973070398642914</v>
       </c>
-      <c r="AJ16" s="122">
+      <c r="AJ16" s="106">
         <f t="shared" si="4"/>
         <v>5.2745971162001695</v>
       </c>
     </row>
     <row r="17" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="133"/>
-      <c r="C17" s="96" t="s">
+      <c r="B17" s="147"/>
+      <c r="C17" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="96">
+      <c r="D17" s="83">
         <v>24.2</v>
       </c>
-      <c r="E17" s="96">
+      <c r="E17" s="83">
         <v>2120</v>
       </c>
-      <c r="F17" s="96">
+      <c r="F17" s="83">
         <v>137</v>
       </c>
-      <c r="G17" s="97">
+      <c r="G17" s="84">
         <f>E17/D17</f>
         <v>87.603305785123965</v>
       </c>
-      <c r="H17" s="98">
+      <c r="H17" s="85">
         <f>F17/D17</f>
         <v>5.6611570247933889</v>
       </c>
-      <c r="K17" s="116"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="98"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="96"/>
-      <c r="Y17" s="97"/>
-      <c r="Z17" s="98"/>
-      <c r="AC17" s="127">
+      <c r="K17" s="100"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="85"/>
+      <c r="T17" s="100"/>
+      <c r="U17" s="99"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="85"/>
+      <c r="AC17" s="110">
         <v>140</v>
       </c>
-      <c r="AD17" s="128">
+      <c r="AD17" s="111">
         <v>50</v>
       </c>
-      <c r="AE17" s="128">
+      <c r="AE17" s="111">
         <v>5</v>
       </c>
-      <c r="AF17" s="128">
+      <c r="AF17" s="111">
         <f t="shared" si="0"/>
         <v>14.148</v>
       </c>
-      <c r="AG17" s="129">
+      <c r="AG17" s="112">
         <f t="shared" si="1"/>
         <v>411</v>
       </c>
-      <c r="AH17" s="129">
+      <c r="AH17" s="112">
         <f t="shared" si="2"/>
         <v>76.5</v>
       </c>
-      <c r="AI17" s="130">
+      <c r="AI17" s="113">
         <f t="shared" si="3"/>
         <v>29.050042408821035</v>
       </c>
-      <c r="AJ17" s="131">
+      <c r="AJ17" s="114">
         <f t="shared" si="4"/>
         <v>5.4071246819338423</v>
       </c>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B18" s="133"/>
-      <c r="C18" s="96" t="s">
+      <c r="B18" s="147"/>
+      <c r="C18" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="96">
+      <c r="D18" s="83">
         <v>37.299999999999997</v>
       </c>
-      <c r="E18" s="96">
+      <c r="E18" s="83">
         <v>5130</v>
       </c>
-      <c r="F18" s="96">
+      <c r="F18" s="83">
         <v>335</v>
       </c>
-      <c r="G18" s="97">
+      <c r="G18" s="84">
         <f>E18/D18</f>
         <v>137.53351206434317</v>
       </c>
-      <c r="H18" s="98">
+      <c r="H18" s="85">
         <f>F18/D18</f>
         <v>8.9812332439678286</v>
       </c>
-      <c r="K18" s="99" t="s">
+      <c r="K18" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="100" t="s">
+      <c r="L18" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="M18" s="101">
+      <c r="M18" s="87">
         <v>7.9</v>
       </c>
-      <c r="N18" s="101">
+      <c r="N18" s="87">
         <v>165</v>
       </c>
-      <c r="O18" s="101">
+      <c r="O18" s="87">
         <v>24.8</v>
       </c>
-      <c r="P18" s="102">
+      <c r="P18" s="88">
         <f>N18/M18</f>
         <v>20.886075949367086</v>
       </c>
-      <c r="Q18" s="103">
+      <c r="Q18" s="89">
         <f>O18/M18</f>
         <v>3.1392405063291138</v>
       </c>
-      <c r="T18" s="104"/>
-      <c r="U18" s="100"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="101"/>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="103"/>
-      <c r="AC18" s="105">
+      <c r="T18" s="90"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="89"/>
+      <c r="AC18" s="91">
         <v>100</v>
       </c>
-      <c r="AD18" s="106">
+      <c r="AD18" s="92">
         <v>60</v>
       </c>
-      <c r="AE18" s="106">
+      <c r="AE18" s="92">
         <v>5</v>
       </c>
-      <c r="AF18" s="106">
+      <c r="AF18" s="92">
         <f t="shared" si="0"/>
         <v>11.79</v>
       </c>
-      <c r="AG18" s="107">
+      <c r="AG18" s="93">
         <f t="shared" si="1"/>
         <v>196.25</v>
       </c>
-      <c r="AH18" s="107">
+      <c r="AH18" s="93">
         <f t="shared" si="2"/>
         <v>86.25</v>
       </c>
-      <c r="AI18" s="108">
+      <c r="AI18" s="94">
         <f t="shared" si="3"/>
         <v>16.64546225614928</v>
       </c>
-      <c r="AJ18" s="109">
+      <c r="AJ18" s="95">
         <f t="shared" si="4"/>
         <v>7.3155216284987281</v>
       </c>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B19" s="110"/>
-      <c r="C19" s="111" t="s">
+      <c r="B19" s="145"/>
+      <c r="C19" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="111">
+      <c r="D19" s="96">
         <v>46</v>
       </c>
-      <c r="E19" s="111">
+      <c r="E19" s="96">
         <v>8990</v>
       </c>
-      <c r="F19" s="111">
+      <c r="F19" s="96">
         <v>486</v>
       </c>
-      <c r="G19" s="112">
+      <c r="G19" s="97">
         <f>E19/D19</f>
         <v>195.43478260869566</v>
       </c>
-      <c r="H19" s="113">
+      <c r="H19" s="98">
         <f>F19/D19</f>
         <v>10.565217391304348</v>
       </c>
-      <c r="K19" s="114"/>
-      <c r="L19" s="115" t="s">
+      <c r="K19" s="151"/>
+      <c r="L19" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="M19" s="134">
+      <c r="M19" s="115">
         <v>14.4</v>
       </c>
-      <c r="N19" s="134">
+      <c r="N19" s="115">
         <v>699</v>
       </c>
-      <c r="O19" s="134">
+      <c r="O19" s="115">
         <v>103</v>
       </c>
-      <c r="P19" s="97">
+      <c r="P19" s="84">
         <f>N19/M19</f>
         <v>48.541666666666664</v>
       </c>
-      <c r="Q19" s="98">
+      <c r="Q19" s="85">
         <f>O19/M19</f>
         <v>7.1527777777777777</v>
       </c>
-      <c r="T19" s="116"/>
-      <c r="U19" s="115"/>
-      <c r="V19" s="134"/>
-      <c r="W19" s="134"/>
-      <c r="X19" s="134"/>
-      <c r="Y19" s="97"/>
-      <c r="Z19" s="98"/>
-      <c r="AC19" s="118">
+      <c r="T19" s="100"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="115"/>
+      <c r="W19" s="115"/>
+      <c r="X19" s="115"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="85"/>
+      <c r="AC19" s="102">
         <v>120</v>
       </c>
-      <c r="AD19" s="119">
+      <c r="AD19" s="103">
         <v>60</v>
       </c>
-      <c r="AE19" s="119">
+      <c r="AE19" s="103">
         <v>5</v>
       </c>
-      <c r="AF19" s="119">
+      <c r="AF19" s="103">
         <f t="shared" si="0"/>
         <v>13.362</v>
       </c>
-      <c r="AG19" s="120">
+      <c r="AG19" s="104">
         <f t="shared" si="1"/>
         <v>309.41666666666663</v>
       </c>
-      <c r="AH19" s="120">
+      <c r="AH19" s="104">
         <f t="shared" si="2"/>
         <v>101.41666666666666</v>
       </c>
-      <c r="AI19" s="121">
+      <c r="AI19" s="105">
         <f t="shared" si="3"/>
         <v>23.156463603253002</v>
       </c>
-      <c r="AJ19" s="122">
+      <c r="AJ19" s="106">
         <f t="shared" si="4"/>
         <v>7.5899316469590374</v>
       </c>
     </row>
     <row r="20" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="123"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="142" t="s">
+      <c r="B20" s="107"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="85"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="M20" s="143">
+      <c r="M20" s="123">
         <v>20.6</v>
       </c>
-      <c r="N20" s="143">
+      <c r="N20" s="123">
         <v>1730</v>
       </c>
-      <c r="O20" s="143">
+      <c r="O20" s="123">
         <v>147</v>
       </c>
-      <c r="P20" s="144">
+      <c r="P20" s="124">
         <f>N20/M20</f>
         <v>83.980582524271838</v>
       </c>
-      <c r="Q20" s="145">
+      <c r="Q20" s="125">
         <f>O20/M20</f>
         <v>7.1359223300970873</v>
       </c>
-      <c r="T20" s="146"/>
-      <c r="U20" s="142"/>
-      <c r="V20" s="143"/>
-      <c r="W20" s="143"/>
-      <c r="X20" s="143"/>
-      <c r="Y20" s="144"/>
-      <c r="Z20" s="145"/>
-      <c r="AC20" s="127">
+      <c r="T20" s="126"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="123"/>
+      <c r="W20" s="123"/>
+      <c r="X20" s="123"/>
+      <c r="Y20" s="124"/>
+      <c r="Z20" s="125"/>
+      <c r="AC20" s="110">
         <v>140</v>
       </c>
-      <c r="AD20" s="128">
+      <c r="AD20" s="111">
         <v>60</v>
       </c>
-      <c r="AE20" s="128">
+      <c r="AE20" s="111">
         <v>5</v>
       </c>
-      <c r="AF20" s="128">
+      <c r="AF20" s="111">
         <f t="shared" si="0"/>
         <v>14.933999999999999</v>
       </c>
-      <c r="AG20" s="129">
+      <c r="AG20" s="112">
         <f t="shared" si="1"/>
         <v>456.58333333333331</v>
       </c>
-      <c r="AH20" s="129">
+      <c r="AH20" s="112">
         <f t="shared" si="2"/>
         <v>116.58333333333333</v>
       </c>
-      <c r="AI20" s="130">
+      <c r="AI20" s="113">
         <f t="shared" si="3"/>
         <v>30.57341190125441</v>
       </c>
-      <c r="AJ20" s="131">
+      <c r="AJ20" s="114">
         <f t="shared" si="4"/>
         <v>7.8065711352171778</v>
       </c>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B21" s="132" t="s">
+      <c r="B21" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="101">
+      <c r="D21" s="87">
         <v>27.1</v>
       </c>
-      <c r="E21" s="101">
+      <c r="E21" s="87">
         <v>1460</v>
       </c>
-      <c r="F21" s="101">
+      <c r="F21" s="87">
         <v>432</v>
       </c>
-      <c r="G21" s="102">
+      <c r="G21" s="88">
         <f>E21/D21</f>
         <v>53.874538745387454</v>
       </c>
-      <c r="H21" s="103">
+      <c r="H21" s="89">
         <f>F21/D21</f>
         <v>15.940959409594095</v>
       </c>
-      <c r="AC21" s="105">
+      <c r="AC21" s="91">
         <v>100</v>
       </c>
-      <c r="AD21" s="106">
+      <c r="AD21" s="92">
         <v>80</v>
       </c>
-      <c r="AE21" s="106">
+      <c r="AE21" s="92">
         <v>5</v>
       </c>
-      <c r="AF21" s="106">
+      <c r="AF21" s="92">
         <f t="shared" si="0"/>
         <v>13.362</v>
       </c>
-      <c r="AG21" s="107">
+      <c r="AG21" s="93">
         <f t="shared" si="1"/>
         <v>241.41666666666666</v>
       </c>
-      <c r="AH21" s="107">
+      <c r="AH21" s="93">
         <f t="shared" si="2"/>
         <v>169.41666666666666</v>
       </c>
-      <c r="AI21" s="108">
+      <c r="AI21" s="94">
         <f t="shared" si="3"/>
         <v>18.067405079079979</v>
       </c>
-      <c r="AJ21" s="109">
+      <c r="AJ21" s="95">
         <f t="shared" si="4"/>
         <v>12.678990171132066</v>
       </c>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B22" s="133"/>
-      <c r="C22" s="96" t="s">
+      <c r="B22" s="147"/>
+      <c r="C22" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="96">
+      <c r="D22" s="83">
         <v>37.299999999999997</v>
       </c>
-      <c r="E22" s="96">
+      <c r="E22" s="83">
         <v>3660</v>
       </c>
-      <c r="F22" s="96">
+      <c r="F22" s="83">
         <v>967</v>
       </c>
-      <c r="G22" s="97">
+      <c r="G22" s="84">
         <f>E22/D22</f>
         <v>98.123324396782849</v>
       </c>
-      <c r="H22" s="98">
+      <c r="H22" s="85">
         <f>F22/D22</f>
         <v>25.924932975871315</v>
       </c>
-      <c r="AC22" s="118">
+      <c r="AC22" s="102">
         <v>120</v>
       </c>
-      <c r="AD22" s="119">
+      <c r="AD22" s="103">
         <v>80</v>
       </c>
-      <c r="AE22" s="119">
+      <c r="AE22" s="103">
         <v>5</v>
       </c>
-      <c r="AF22" s="119">
+      <c r="AF22" s="103">
         <f t="shared" si="0"/>
         <v>14.933999999999999</v>
       </c>
-      <c r="AG22" s="120">
+      <c r="AG22" s="104">
         <f t="shared" si="1"/>
         <v>375.58333333333331</v>
       </c>
-      <c r="AH22" s="120">
+      <c r="AH22" s="104">
         <f t="shared" si="2"/>
         <v>197.58333333333331</v>
       </c>
-      <c r="AI22" s="121">
+      <c r="AI22" s="105">
         <f t="shared" si="3"/>
         <v>25.149546895227893</v>
       </c>
-      <c r="AJ22" s="122">
+      <c r="AJ22" s="106">
         <f t="shared" si="4"/>
         <v>13.230436141243693</v>
       </c>
     </row>
     <row r="23" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="133"/>
-      <c r="C23" s="96" t="s">
+      <c r="B23" s="147"/>
+      <c r="C23" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="96">
+      <c r="D23" s="83">
         <v>51</v>
       </c>
-      <c r="E23" s="96">
+      <c r="E23" s="83">
         <v>7740</v>
       </c>
-      <c r="F23" s="96">
+      <c r="F23" s="83">
         <v>1960</v>
       </c>
-      <c r="G23" s="97">
+      <c r="G23" s="84">
         <f>E23/D23</f>
         <v>151.76470588235293</v>
       </c>
-      <c r="H23" s="98">
+      <c r="H23" s="85">
         <f>F23/D23</f>
         <v>38.431372549019606</v>
       </c>
-      <c r="AC23" s="127">
+      <c r="AC23" s="110">
         <v>140</v>
       </c>
-      <c r="AD23" s="128">
+      <c r="AD23" s="111">
         <v>80</v>
       </c>
-      <c r="AE23" s="128">
+      <c r="AE23" s="111">
         <v>5</v>
       </c>
-      <c r="AF23" s="128">
+      <c r="AF23" s="111">
         <f t="shared" si="0"/>
         <v>16.506</v>
       </c>
-      <c r="AG23" s="129">
+      <c r="AG23" s="112">
         <f t="shared" si="1"/>
         <v>547.75</v>
       </c>
-      <c r="AH23" s="129">
+      <c r="AH23" s="112">
         <f t="shared" si="2"/>
         <v>225.75</v>
       </c>
-      <c r="AI23" s="130">
+      <c r="AI23" s="113">
         <f t="shared" si="3"/>
         <v>33.184902459711623</v>
       </c>
-      <c r="AJ23" s="131">
+      <c r="AJ23" s="114">
         <f t="shared" si="4"/>
         <v>13.676844783715012</v>
       </c>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B24" s="110"/>
-      <c r="C24" s="111" t="s">
+      <c r="B24" s="145"/>
+      <c r="C24" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="111">
+      <c r="D24" s="96">
         <v>58.8</v>
       </c>
-      <c r="E24" s="111">
+      <c r="E24" s="96">
         <v>12600</v>
       </c>
-      <c r="F24" s="111">
+      <c r="F24" s="96">
         <v>2200</v>
       </c>
-      <c r="G24" s="112">
+      <c r="G24" s="97">
         <f>E24/D24</f>
         <v>214.28571428571431</v>
       </c>
-      <c r="H24" s="113">
+      <c r="H24" s="98">
         <f>F24/D24</f>
         <v>37.414965986394563</v>
       </c>
-      <c r="AC24" s="147">
+      <c r="AC24" s="127">
         <v>100</v>
       </c>
-      <c r="AD24" s="148">
+      <c r="AD24" s="128">
         <v>50</v>
       </c>
-      <c r="AE24" s="148">
+      <c r="AE24" s="128">
         <v>6</v>
       </c>
-      <c r="AF24" s="148">
+      <c r="AF24" s="128">
         <f t="shared" si="0"/>
         <v>13.016159999999999</v>
       </c>
-      <c r="AG24" s="149">
+      <c r="AG24" s="129">
         <f t="shared" si="1"/>
         <v>200.8672</v>
       </c>
-      <c r="AH24" s="149">
+      <c r="AH24" s="129">
         <f t="shared" si="2"/>
         <v>63.927199999999999</v>
       </c>
-      <c r="AI24" s="150">
+      <c r="AI24" s="130">
         <f t="shared" si="3"/>
         <v>15.432139740138414</v>
       </c>
-      <c r="AJ24" s="151">
+      <c r="AJ24" s="131">
         <f t="shared" si="4"/>
         <v>4.9113717102432668</v>
       </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B25" s="123"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="98"/>
-      <c r="AC25" s="118">
+      <c r="B25" s="107"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="85"/>
+      <c r="AC25" s="102">
         <v>120</v>
       </c>
-      <c r="AD25" s="119">
+      <c r="AD25" s="103">
         <v>50</v>
       </c>
-      <c r="AE25" s="119">
+      <c r="AE25" s="103">
         <v>6</v>
       </c>
-      <c r="AF25" s="119">
+      <c r="AF25" s="103">
         <f t="shared" si="0"/>
         <v>14.902560000000001</v>
       </c>
-      <c r="AG25" s="120">
+      <c r="AG25" s="104">
         <f t="shared" si="1"/>
         <v>321.09120000000001</v>
       </c>
-      <c r="AH25" s="120">
+      <c r="AH25" s="104">
         <f t="shared" si="2"/>
         <v>75.615200000000002</v>
       </c>
-      <c r="AI25" s="121">
+      <c r="AI25" s="105">
         <f t="shared" si="3"/>
         <v>21.546043095951298</v>
       </c>
-      <c r="AJ25" s="122">
+      <c r="AJ25" s="106">
         <f t="shared" si="4"/>
         <v>5.0739738675771138</v>
       </c>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B26" s="132" t="s">
+      <c r="B26" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="101">
+      <c r="D26" s="87">
         <v>17</v>
       </c>
-      <c r="E26" s="101">
+      <c r="E26" s="87">
         <v>839</v>
       </c>
-      <c r="F26" s="101">
+      <c r="F26" s="87">
         <v>94.88</v>
       </c>
-      <c r="G26" s="102">
+      <c r="G26" s="88">
         <f>E26/D26</f>
         <v>49.352941176470587</v>
       </c>
-      <c r="H26" s="103">
+      <c r="H26" s="89">
         <f>F26/D26</f>
         <v>5.5811764705882352</v>
       </c>
-      <c r="AC26" s="118">
+      <c r="AC26" s="102">
         <v>140</v>
       </c>
-      <c r="AD26" s="119">
+      <c r="AD26" s="103">
         <v>50</v>
       </c>
-      <c r="AE26" s="119">
+      <c r="AE26" s="103">
         <v>6</v>
       </c>
-      <c r="AF26" s="119">
+      <c r="AF26" s="103">
         <f t="shared" si="0"/>
         <v>16.788959999999999</v>
       </c>
-      <c r="AG26" s="120">
+      <c r="AG26" s="104">
         <f t="shared" si="1"/>
         <v>479.23520000000002</v>
       </c>
-      <c r="AH26" s="120">
+      <c r="AH26" s="104">
         <f t="shared" si="2"/>
         <v>87.303200000000004</v>
       </c>
-      <c r="AI26" s="121">
+      <c r="AI26" s="105">
         <f t="shared" si="3"/>
         <v>28.544662683096512</v>
       </c>
-      <c r="AJ26" s="122">
+      <c r="AJ26" s="106">
         <f t="shared" si="4"/>
         <v>5.2000362142741423</v>
       </c>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B27" s="133"/>
-      <c r="C27" s="96" t="s">
+      <c r="B27" s="147"/>
+      <c r="C27" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="96">
+      <c r="D27" s="83">
         <v>28.8</v>
       </c>
-      <c r="E27" s="96">
+      <c r="E27" s="83">
         <v>2620</v>
       </c>
-      <c r="F27" s="96">
+      <c r="F27" s="83">
         <v>329</v>
       </c>
-      <c r="G27" s="97">
+      <c r="G27" s="84">
         <f>E27/D27</f>
         <v>90.972222222222214</v>
       </c>
-      <c r="H27" s="98">
+      <c r="H27" s="85">
         <f>F27/D27</f>
         <v>11.423611111111111</v>
       </c>
-      <c r="AC27" s="118">
+      <c r="AC27" s="102">
         <v>100</v>
       </c>
-      <c r="AD27" s="119">
+      <c r="AD27" s="103">
         <v>60</v>
       </c>
-      <c r="AE27" s="119">
+      <c r="AE27" s="103">
         <v>6</v>
       </c>
-      <c r="AF27" s="119">
+      <c r="AF27" s="103">
         <f t="shared" si="0"/>
         <v>13.95936</v>
       </c>
-      <c r="AG27" s="120">
+      <c r="AG27" s="104">
         <f t="shared" si="1"/>
         <v>227.41120000000001</v>
       </c>
-      <c r="AH27" s="120">
+      <c r="AH27" s="104">
         <f t="shared" si="2"/>
         <v>98.899199999999993</v>
       </c>
-      <c r="AI27" s="121">
+      <c r="AI27" s="105">
         <f t="shared" si="3"/>
         <v>16.290947435985604</v>
       </c>
-      <c r="AJ27" s="122">
+      <c r="AJ27" s="106">
         <f t="shared" si="4"/>
         <v>7.0847947183825042</v>
       </c>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B28" s="133"/>
-      <c r="C28" s="96" t="s">
+      <c r="B28" s="147"/>
+      <c r="C28" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="96">
+      <c r="D28" s="83">
         <v>40.9</v>
       </c>
-      <c r="E28" s="96">
+      <c r="E28" s="83">
         <v>5940</v>
       </c>
-      <c r="F28" s="96">
+      <c r="F28" s="83">
         <v>858</v>
       </c>
-      <c r="G28" s="97">
+      <c r="G28" s="84">
         <f>E28/D28</f>
         <v>145.23227383863082</v>
       </c>
-      <c r="H28" s="98">
+      <c r="H28" s="85">
         <f>F28/D28</f>
         <v>20.977995110024452</v>
       </c>
-      <c r="AC28" s="118">
+      <c r="AC28" s="102">
         <v>120</v>
       </c>
-      <c r="AD28" s="119">
+      <c r="AD28" s="103">
         <v>60</v>
       </c>
-      <c r="AE28" s="119">
+      <c r="AE28" s="103">
         <v>6</v>
       </c>
-      <c r="AF28" s="119">
+      <c r="AF28" s="103">
         <f t="shared" si="0"/>
         <v>15.84576</v>
       </c>
-      <c r="AG28" s="120">
+      <c r="AG28" s="104">
         <f t="shared" si="1"/>
         <v>360.11520000000002</v>
       </c>
-      <c r="AH28" s="120">
+      <c r="AH28" s="104">
         <f t="shared" si="2"/>
         <v>116.46720000000001</v>
       </c>
-      <c r="AI28" s="121">
+      <c r="AI28" s="105">
         <f t="shared" si="3"/>
         <v>22.726281352235553</v>
       </c>
-      <c r="AJ28" s="122">
+      <c r="AJ28" s="106">
         <f t="shared" si="4"/>
         <v>7.3500545256270451</v>
       </c>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B29" s="110"/>
-      <c r="C29" s="111" t="s">
+      <c r="B29" s="145"/>
+      <c r="C29" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="111">
+      <c r="D29" s="96">
         <v>48.1</v>
       </c>
-      <c r="E29" s="111">
+      <c r="E29" s="96">
         <v>9820</v>
       </c>
-      <c r="F29" s="111">
+      <c r="F29" s="96">
         <v>990</v>
       </c>
-      <c r="G29" s="112">
+      <c r="G29" s="97">
         <f>E29/D29</f>
         <v>204.15800415800416</v>
       </c>
-      <c r="H29" s="113">
+      <c r="H29" s="98">
         <f>F29/D29</f>
         <v>20.582120582120581</v>
       </c>
-      <c r="AC29" s="118">
+      <c r="AC29" s="102">
         <v>140</v>
       </c>
-      <c r="AD29" s="119">
+      <c r="AD29" s="103">
         <v>60</v>
       </c>
-      <c r="AE29" s="119">
+      <c r="AE29" s="103">
         <v>6</v>
       </c>
-      <c r="AF29" s="119">
+      <c r="AF29" s="103">
         <f t="shared" si="0"/>
         <v>17.73216</v>
       </c>
-      <c r="AG29" s="120">
+      <c r="AG29" s="104">
         <f t="shared" si="1"/>
         <v>533.13919999999996</v>
       </c>
-      <c r="AH29" s="120">
+      <c r="AH29" s="104">
         <f t="shared" si="2"/>
         <v>134.0352</v>
       </c>
-      <c r="AI29" s="121">
+      <c r="AI29" s="105">
         <f t="shared" si="3"/>
         <v>30.066229946041538</v>
       </c>
-      <c r="AJ29" s="122">
+      <c r="AJ29" s="106">
         <f t="shared" si="4"/>
         <v>7.5588760760110443</v>
       </c>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B30" s="152"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="98"/>
-      <c r="AC30" s="118">
+      <c r="B30" s="132"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="85"/>
+      <c r="AC30" s="102">
         <v>100</v>
       </c>
-      <c r="AD30" s="119">
+      <c r="AD30" s="103">
         <v>80</v>
       </c>
-      <c r="AE30" s="119">
+      <c r="AE30" s="103">
         <v>6</v>
       </c>
-      <c r="AF30" s="119">
+      <c r="AF30" s="103">
         <f t="shared" si="0"/>
         <v>15.84576</v>
       </c>
-      <c r="AG30" s="120">
+      <c r="AG30" s="104">
         <f t="shared" si="1"/>
         <v>280.49919999999997</v>
       </c>
-      <c r="AH30" s="120">
+      <c r="AH30" s="104">
         <f t="shared" si="2"/>
         <v>196.08320000000001</v>
       </c>
-      <c r="AI30" s="121">
+      <c r="AI30" s="105">
         <f t="shared" si="3"/>
         <v>17.701845793448843</v>
       </c>
-      <c r="AJ30" s="122">
+      <c r="AJ30" s="106">
         <f t="shared" si="4"/>
         <v>12.374490084413749</v>
       </c>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B31" s="132" t="s">
+      <c r="B31" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="100" t="s">
+      <c r="C31" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="101">
+      <c r="D31" s="87">
         <v>20</v>
       </c>
-      <c r="E31" s="101">
+      <c r="E31" s="87">
         <v>436</v>
       </c>
-      <c r="F31" s="101">
+      <c r="F31" s="87">
         <v>236</v>
       </c>
-      <c r="G31" s="102">
+      <c r="G31" s="88">
         <f>E31/D31</f>
         <v>21.8</v>
       </c>
-      <c r="H31" s="103">
+      <c r="H31" s="89">
         <f>F31/D31</f>
         <v>11.8</v>
       </c>
-      <c r="AC31" s="118">
+      <c r="AC31" s="102">
         <v>120</v>
       </c>
-      <c r="AD31" s="119">
+      <c r="AD31" s="103">
         <v>80</v>
       </c>
-      <c r="AE31" s="119">
+      <c r="AE31" s="103">
         <v>6</v>
       </c>
-      <c r="AF31" s="119">
+      <c r="AF31" s="103">
         <f t="shared" si="0"/>
         <v>17.73216</v>
       </c>
-      <c r="AG31" s="120">
+      <c r="AG31" s="104">
         <f t="shared" si="1"/>
         <v>438.16320000000002</v>
       </c>
-      <c r="AH31" s="120">
+      <c r="AH31" s="104">
         <f t="shared" si="2"/>
         <v>229.0112</v>
       </c>
-      <c r="AI31" s="121">
+      <c r="AI31" s="105">
         <f t="shared" si="3"/>
         <v>24.710086080883549</v>
       </c>
-      <c r="AJ31" s="122">
+      <c r="AJ31" s="106">
         <f t="shared" si="4"/>
         <v>12.915019941169041</v>
       </c>
     </row>
     <row r="32" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="133"/>
-      <c r="C32" s="115" t="s">
+      <c r="B32" s="147"/>
+      <c r="C32" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="96">
+      <c r="D32" s="83">
         <v>37.1</v>
       </c>
-      <c r="E32" s="96">
+      <c r="E32" s="83">
         <v>1970</v>
       </c>
-      <c r="F32" s="96">
+      <c r="F32" s="83">
         <v>700</v>
       </c>
-      <c r="G32" s="97">
+      <c r="G32" s="84">
         <f>E32/D32</f>
         <v>53.099730458221025</v>
       </c>
-      <c r="H32" s="98">
+      <c r="H32" s="85">
         <f>F32/D32</f>
         <v>18.867924528301884</v>
       </c>
-      <c r="AC32" s="127">
+      <c r="AC32" s="110">
         <v>140</v>
       </c>
-      <c r="AD32" s="128">
+      <c r="AD32" s="111">
         <v>80</v>
       </c>
-      <c r="AE32" s="128">
+      <c r="AE32" s="111">
         <v>6</v>
       </c>
-      <c r="AF32" s="128">
+      <c r="AF32" s="111">
         <f t="shared" si="0"/>
         <v>19.618560000000002</v>
       </c>
-      <c r="AG32" s="129">
+      <c r="AG32" s="112">
         <f t="shared" si="1"/>
         <v>640.94719999999995</v>
       </c>
-      <c r="AH32" s="129">
+      <c r="AH32" s="112">
         <f t="shared" si="2"/>
         <v>261.93920000000003</v>
       </c>
-      <c r="AI32" s="130">
+      <c r="AI32" s="113">
         <f t="shared" si="3"/>
         <v>32.670450838389762</v>
       </c>
-      <c r="AJ32" s="131">
+      <c r="AJ32" s="114">
         <f t="shared" si="4"/>
         <v>13.351601748548314</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="133"/>
-      <c r="C33" s="115" t="s">
+      <c r="B33" s="147"/>
+      <c r="C33" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="96">
+      <c r="D33" s="83">
         <v>60.3</v>
       </c>
-      <c r="E33" s="96">
+      <c r="E33" s="83">
         <v>5530</v>
       </c>
-      <c r="F33" s="96">
+      <c r="F33" s="83">
         <v>1530</v>
       </c>
-      <c r="G33" s="97">
+      <c r="G33" s="84">
         <f>E33/D33</f>
         <v>91.708126036484245</v>
       </c>
-      <c r="H33" s="98">
+      <c r="H33" s="85">
         <f>F33/D33</f>
         <v>25.373134328358208</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="153"/>
-      <c r="C34" s="142" t="s">
+      <c r="B34" s="149"/>
+      <c r="C34" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="143">
+      <c r="D34" s="123">
         <v>85.6</v>
       </c>
-      <c r="E34" s="143">
+      <c r="E34" s="123">
         <v>12500</v>
       </c>
-      <c r="F34" s="143">
+      <c r="F34" s="123">
         <v>3260</v>
       </c>
-      <c r="G34" s="144">
+      <c r="G34" s="124">
         <f>E34/D34</f>
         <v>146.02803738317758</v>
       </c>
-      <c r="H34" s="145">
+      <c r="H34" s="125">
         <f>F34/D34</f>
         <v>38.084112149532714</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B1:AJ1"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="K14:K16"/>
     <mergeCell ref="K18:K20"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63C569D-7C36-4EF7-B4B3-90608BBFB973}">
+  <dimension ref="A1:AB25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.44140625" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5546875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.44140625" customWidth="1"/>
+    <col min="23" max="23" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5546875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B3" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="13">
+        <v>400</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="2"/>
+      <c r="I3" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="13">
+        <v>400</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="2"/>
+      <c r="P3" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>400</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="2"/>
+      <c r="W3" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="X3" s="13">
+        <v>400</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="2"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="3"/>
+      <c r="P4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>3</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="3"/>
+      <c r="W4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="15">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="3"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B5" s="14"/>
+      <c r="C5" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="160" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" s="160" t="s">
+        <v>108</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="S5" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="T5" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="U5" s="160" t="s">
+        <v>108</v>
+      </c>
+      <c r="W5" s="14"/>
+      <c r="X5" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z5" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA5" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB5" s="160" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="155">
+        <f>C3/4</f>
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <f>C6</f>
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <f>C6*C4*4*7.851/1000</f>
+        <v>4.7106000000000003</v>
+      </c>
+      <c r="F6" s="157">
+        <f>1/6*(C6^4 - (C6-2*C4)^4)</f>
+        <v>1911786.5</v>
+      </c>
+      <c r="G6" s="161">
+        <f>F6/E6/1000000</f>
+        <v>0.40584776886171609</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="155">
+        <f>J3/4</f>
+        <v>100</v>
+      </c>
+      <c r="K6" s="1">
+        <f>J6</f>
+        <v>100</v>
+      </c>
+      <c r="L6" s="1">
+        <f>J6*J4*4*7.851/1000</f>
+        <v>7.851</v>
+      </c>
+      <c r="M6" s="157">
+        <f>1/6*(J6^4 - (J6-2*J4)^4)</f>
+        <v>3091562.5</v>
+      </c>
+      <c r="N6" s="161">
+        <f>M6/L6/1000000</f>
+        <v>0.39377945484651639</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q6" s="155">
+        <f>Q3/4</f>
+        <v>100</v>
+      </c>
+      <c r="R6" s="1">
+        <f>Q6</f>
+        <v>100</v>
+      </c>
+      <c r="S6" s="1">
+        <f>Q6*Q4*4*7.851/1000</f>
+        <v>9.4212000000000007</v>
+      </c>
+      <c r="T6" s="157">
+        <f>1/6*(Q6^4 - (Q6-2*Q4)^4)</f>
+        <v>3654184</v>
+      </c>
+      <c r="U6" s="161">
+        <f>T6/S6/1000000</f>
+        <v>0.38786821211735234</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="X6" s="155">
+        <f>X3/4</f>
+        <v>100</v>
+      </c>
+      <c r="Y6" s="1">
+        <f>X6</f>
+        <v>100</v>
+      </c>
+      <c r="Z6" s="1">
+        <f>X6*X4*4*7.851/1000</f>
+        <v>12.5616</v>
+      </c>
+      <c r="AA6" s="157">
+        <f>1/6*(X6^4 - (X6-2*X4)^4)</f>
+        <v>4726784</v>
+      </c>
+      <c r="AB6" s="161">
+        <f>AA6/Z6/1000000</f>
+        <v>0.37628837090816453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="155">
+        <f>C3/6</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D7" s="1">
+        <f>C7*SQRT(3)</f>
+        <v>115.47005383792515</v>
+      </c>
+      <c r="E7" s="156">
+        <f>0.866*(D7^2 - (D7-2*C4)^2)*1000*7.86/1000000</f>
+        <v>4.6546008219710089</v>
+      </c>
+      <c r="F7" s="156">
+        <f>0.1203*(D7^4 - (D7-2*C4)^4)</f>
+        <v>2137442.0850998629</v>
+      </c>
+      <c r="G7" s="161">
+        <f t="shared" ref="G7:G9" si="0">F7/E7/1000000</f>
+        <v>0.45921061050188078</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="155">
+        <f>J3/6</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K7" s="1">
+        <f>J7*SQRT(3)</f>
+        <v>115.47005383792515</v>
+      </c>
+      <c r="L7" s="156">
+        <f>0.866*(K7^2 - (K7-2*J4)^2)*1000*7.86/1000000</f>
+        <v>7.6896004366183526</v>
+      </c>
+      <c r="M7" s="156">
+        <f>0.1203*(K7^4 - (K7-2*J4)^4)</f>
+        <v>3470549.6633589864</v>
+      </c>
+      <c r="N7" s="161">
+        <f t="shared" ref="N7:N9" si="1">M7/L7/1000000</f>
+        <v>0.45133029888419357</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q7" s="155">
+        <f>Q3/6</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="R7" s="1">
+        <f>Q7*SQRT(3)</f>
+        <v>115.47005383792515</v>
+      </c>
+      <c r="S7" s="156">
+        <f>0.866*(R7^2 - (R7-2*Q4)^2)*1000*7.86/1000000</f>
+        <v>9.1866799639420176</v>
+      </c>
+      <c r="T7" s="156">
+        <f>0.1203*(R7^4 - (R7-2*Q4)^4)</f>
+        <v>4110517.1487646308</v>
+      </c>
+      <c r="U7" s="161">
+        <f t="shared" ref="U7:U9" si="2">T7/S7/1000000</f>
+        <v>0.44744316389582833</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" s="155">
+        <f>X3/6</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="Y7" s="1">
+        <f>X7*SQRT(3)</f>
+        <v>115.47005383792515</v>
+      </c>
+      <c r="Z7" s="156">
+        <f>0.866*(Y7^2 - (Y7-2*X4)^2)*1000*7.86/1000000</f>
+        <v>12.139998458589361</v>
+      </c>
+      <c r="AA7" s="156">
+        <f>0.1203*(Y7^4 - (Y7-2*X4)^4)</f>
+        <v>5338867.0398253044</v>
+      </c>
+      <c r="AB7" s="161">
+        <f t="shared" ref="AB7:AB9" si="3">AA7/Z7/1000000</f>
+        <v>0.43977493556005515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="155">
+        <f>C3/8</f>
+        <v>50</v>
+      </c>
+      <c r="D8" s="1">
+        <f>C8/TAN(PI()/180 * 22.5)</f>
+        <v>120.71067811865476</v>
+      </c>
+      <c r="E8" s="156">
+        <f>D8/TAN(67.5*PI()/180)*8*C4*1000*7.8/1000000</f>
+        <v>4.6800000000000006</v>
+      </c>
+      <c r="F8" s="158">
+        <f>1.7515*((D8/2)^4 - (D8/2 - C4)^4)</f>
+        <v>2225797.4216127414</v>
+      </c>
+      <c r="G8" s="161">
+        <f t="shared" si="0"/>
+        <v>0.47559773966084212</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="155">
+        <f>J3/8</f>
+        <v>50</v>
+      </c>
+      <c r="K8" s="1">
+        <f>J8/TAN(PI()/180 * 22.5)</f>
+        <v>120.71067811865476</v>
+      </c>
+      <c r="L8" s="156">
+        <f>K8/TAN(67.5*PI()/180)*8*J4*1000*7.8/1000000</f>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="M8" s="158">
+        <f>1.7515*((K8/2)^4 - (K8/2 - J4)^4)</f>
+        <v>3618132.6299497504</v>
+      </c>
+      <c r="N8" s="161">
+        <f t="shared" si="1"/>
+        <v>0.46386315768586539</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" s="155">
+        <f>Q3/8</f>
+        <v>50</v>
+      </c>
+      <c r="R8" s="1">
+        <f>Q8/TAN(PI()/180 * 22.5)</f>
+        <v>120.71067811865476</v>
+      </c>
+      <c r="S8" s="156">
+        <f>R8/TAN(67.5*PI()/180)*8*Q4*1000*7.8/1000000</f>
+        <v>9.3600000000000012</v>
+      </c>
+      <c r="T8" s="158">
+        <f>1.7515*((R8/2)^4 - (R8/2 - Q4)^4)</f>
+        <v>4287765.137559073</v>
+      </c>
+      <c r="U8" s="161">
+        <f t="shared" si="2"/>
+        <v>0.45809456597853343</v>
+      </c>
+      <c r="W8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" s="155">
+        <f>X3/8</f>
+        <v>50</v>
+      </c>
+      <c r="Y8" s="1">
+        <f>X8/TAN(PI()/180 * 22.5)</f>
+        <v>120.71067811865476</v>
+      </c>
+      <c r="Z8" s="156">
+        <f>Y8/TAN(67.5*PI()/180)*8*X4*1000*7.8/1000000</f>
+        <v>12.480000000000002</v>
+      </c>
+      <c r="AA8" s="158">
+        <f>1.7515*((Y8/2)^4 - (Y8/2 - X4)^4)</f>
+        <v>5575473.3959297966</v>
+      </c>
+      <c r="AB8" s="161">
+        <f t="shared" si="3"/>
+        <v>0.44675267595591311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="162">
+        <f>C3/PI()</f>
+        <v>127.32395447351627</v>
+      </c>
+      <c r="D9" s="11">
+        <f>C9</f>
+        <v>127.32395447351627</v>
+      </c>
+      <c r="E9" s="163">
+        <f>PI()*D9*C4*7.851/1000</f>
+        <v>4.7106000000000003</v>
+      </c>
+      <c r="F9" s="164">
+        <f>PI()/32 *(D9^4 - (D9- 2*C4)^4)</f>
+        <v>2347106.7859900803</v>
+      </c>
+      <c r="G9" s="165">
+        <f t="shared" si="0"/>
+        <v>0.49826068568549237</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="162">
+        <f>J3/PI()</f>
+        <v>127.32395447351627</v>
+      </c>
+      <c r="K9" s="11">
+        <f>J9</f>
+        <v>127.32395447351627</v>
+      </c>
+      <c r="L9" s="163">
+        <f>PI()*K9*J4*7.851/1000</f>
+        <v>7.851</v>
+      </c>
+      <c r="M9" s="164">
+        <f>PI()/32 *(K9^4 - (K9- 2*J4)^4)</f>
+        <v>3820303.5718241511</v>
+      </c>
+      <c r="N9" s="165">
+        <f t="shared" si="1"/>
+        <v>0.48660088801734191</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q9" s="162">
+        <f>Q3/PI()</f>
+        <v>127.32395447351627</v>
+      </c>
+      <c r="R9" s="11">
+        <f>Q9</f>
+        <v>127.32395447351627</v>
+      </c>
+      <c r="S9" s="163">
+        <f>PI()*R9*Q4*7.851/1000</f>
+        <v>9.4212000000000007</v>
+      </c>
+      <c r="T9" s="164">
+        <f>PI()/32 *(R9^4 - (R9- 2*Q4)^4)</f>
+        <v>4530314.9032512475</v>
+      </c>
+      <c r="U9" s="165">
+        <f t="shared" si="2"/>
+        <v>0.48086389241829569</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" s="162">
+        <f>X3/PI()</f>
+        <v>127.32395447351627</v>
+      </c>
+      <c r="Y9" s="11">
+        <f>X9</f>
+        <v>127.32395447351627</v>
+      </c>
+      <c r="Z9" s="163">
+        <f>PI()*Y9*X4*7.851/1000</f>
+        <v>12.5616</v>
+      </c>
+      <c r="AA9" s="164">
+        <f>PI()/32 *(Y9^4 - (Y9- 2*X4)^4)</f>
+        <v>5898598.6477770824</v>
+      </c>
+      <c r="AB9" s="165">
+        <f t="shared" si="3"/>
+        <v>0.46957383197817809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B11" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="13">
+        <v>500</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="2"/>
+      <c r="I11" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="13">
+        <v>500</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="2"/>
+      <c r="P11" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>500</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="2"/>
+      <c r="W11" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="X11" s="13">
+        <v>500</v>
+      </c>
+      <c r="Y11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="2"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="3"/>
+      <c r="I12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="3"/>
+      <c r="P12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>3</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="3"/>
+      <c r="W12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" s="15">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="3"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B13" s="14"/>
+      <c r="C13" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="160" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" s="160" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="R13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="S13" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="T13" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="U13" s="160" t="s">
+        <v>108</v>
+      </c>
+      <c r="W13" s="14"/>
+      <c r="X13" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z13" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA13" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB13" s="160" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="155">
+        <f>C11/4</f>
+        <v>125</v>
+      </c>
+      <c r="D14" s="1">
+        <f>C14</f>
+        <v>125</v>
+      </c>
+      <c r="E14" s="1">
+        <f>C14*C12*4*7.851/1000</f>
+        <v>5.8882500000000002</v>
+      </c>
+      <c r="F14" s="157">
+        <f>1/6*(C14^4 - (C14-2*C12)^4)</f>
+        <v>3767861.5</v>
+      </c>
+      <c r="G14" s="161">
+        <f>F14/E14/1000000</f>
+        <v>0.63989496030229687</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="155">
+        <f>J11/4</f>
+        <v>125</v>
+      </c>
+      <c r="K14" s="1">
+        <f>J14</f>
+        <v>125</v>
+      </c>
+      <c r="L14" s="1">
+        <f>J14*J12*4*7.851/1000</f>
+        <v>9.8137500000000006</v>
+      </c>
+      <c r="M14" s="157">
+        <f>1/6*(J14^4 - (J14-2*J12)^4)</f>
+        <v>6130104.166666666</v>
+      </c>
+      <c r="N14" s="161">
+        <f>M14/L14/1000000</f>
+        <v>0.62464441896998257</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" s="155">
+        <f>Q11/4</f>
+        <v>125</v>
+      </c>
+      <c r="R14" s="1">
+        <f>Q14</f>
+        <v>125</v>
+      </c>
+      <c r="S14" s="1">
+        <f>Q14*Q12*4*7.851/1000</f>
+        <v>11.7765</v>
+      </c>
+      <c r="T14" s="157">
+        <f>1/6*(Q14^4 - (Q14-2*Q12)^4)</f>
+        <v>7267784</v>
+      </c>
+      <c r="U14" s="161">
+        <f>T14/S14/1000000</f>
+        <v>0.61714295418842602</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="X14" s="155">
+        <f>X11/4</f>
+        <v>125</v>
+      </c>
+      <c r="Y14" s="1">
+        <f>X14</f>
+        <v>125</v>
+      </c>
+      <c r="Z14" s="1">
+        <f>X14*X12*4*7.851/1000</f>
+        <v>15.702</v>
+      </c>
+      <c r="AA14" s="157">
+        <f>1/6*(X14^4 - (X14-2*X12)^4)</f>
+        <v>9458650.666666666</v>
+      </c>
+      <c r="AB14" s="161">
+        <f>AA14/Z14/1000000</f>
+        <v>0.60238508894832921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="155">
+        <f>C11/6</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="D15" s="1">
+        <f>C15*SQRT(3)</f>
+        <v>144.33756729740642</v>
+      </c>
+      <c r="E15" s="156">
+        <f>0.866*(D15^2 - (D15-2*C12)^2)*1000*7.86/1000000</f>
+        <v>5.8335662374637671</v>
+      </c>
+      <c r="F15" s="156">
+        <f>0.1203*(D15^4 - (D15-2*C12)^4)</f>
+        <v>4207480.3835788537</v>
+      </c>
+      <c r="G15" s="161">
+        <f t="shared" ref="G15:G17" si="4">F15/E15/1000000</f>
+        <v>0.72125355439661909</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="155">
+        <f>J11/6</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="K15" s="1">
+        <f>J15*SQRT(3)</f>
+        <v>144.33756729740642</v>
+      </c>
+      <c r="L15" s="156">
+        <f>0.866*(K15^2 - (K15-2*J12)^2)*1000*7.86/1000000</f>
+        <v>9.6545427957729366</v>
+      </c>
+      <c r="M15" s="156">
+        <f>0.1203*(K15^4 - (K15-2*J12)^4)</f>
+        <v>6867589.7779554306</v>
+      </c>
+      <c r="N15" s="161">
+        <f t="shared" ref="N15:N17" si="5">M15/L15/1000000</f>
+        <v>0.71133247044720527</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="155">
+        <f>Q11/6</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="R15" s="1">
+        <f>Q15*SQRT(3)</f>
+        <v>144.33756729740642</v>
+      </c>
+      <c r="S15" s="156">
+        <f>0.866*(R15^2 - (R15-2*Q12)^2)*1000*7.86/1000000</f>
+        <v>11.544610794927534</v>
+      </c>
+      <c r="T15" s="156">
+        <f>0.1203*(R15^4 - (R15-2*Q12)^4)</f>
+        <v>8155401.0954138348</v>
+      </c>
+      <c r="U15" s="161">
+        <f t="shared" ref="U15:U17" si="6">T15/S15/1000000</f>
+        <v>0.70642494929297672</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="X15" s="155">
+        <f>X11/6</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="Y15" s="1">
+        <f>X15*SQRT(3)</f>
+        <v>144.33756729740642</v>
+      </c>
+      <c r="Z15" s="156">
+        <f>0.866*(Y15^2 - (Y15-2*X12)^2)*1000*7.86/1000000</f>
+        <v>15.283906233236703</v>
+      </c>
+      <c r="AA15" s="156">
+        <f>0.1203*(Y15^4 - (Y15-2*X12)^4)</f>
+        <v>10648541.229992349</v>
+      </c>
+      <c r="AB15" s="161">
+        <f t="shared" ref="AB15:AB17" si="7">AA15/Z15/1000000</f>
+        <v>0.69671594862547692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="155">
+        <f>C11/8</f>
+        <v>62.5</v>
+      </c>
+      <c r="D16" s="1">
+        <f>C16/TAN(PI()/180 * 22.5)</f>
+        <v>150.88834764831844</v>
+      </c>
+      <c r="E16" s="156">
+        <f>D16/TAN(67.5*PI()/180)*8*C12*1000*7.8/1000000</f>
+        <v>5.8500000000000005</v>
+      </c>
+      <c r="F16" s="158">
+        <f>1.7515*((D16/2)^4 - (D16/2 - C12)^4)</f>
+        <v>4379911.7453189231</v>
+      </c>
+      <c r="G16" s="161">
+        <f t="shared" si="4"/>
+        <v>0.74870286244767914</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="155">
+        <f>J11/8</f>
+        <v>62.5</v>
+      </c>
+      <c r="K16" s="1">
+        <f>J16/TAN(PI()/180 * 22.5)</f>
+        <v>150.88834764831844</v>
+      </c>
+      <c r="L16" s="156">
+        <f>K16/TAN(67.5*PI()/180)*8*J12*1000*7.8/1000000</f>
+        <v>9.7500000000000018</v>
+      </c>
+      <c r="M16" s="158">
+        <f>1.7515*((K16/2)^4 - (K16/2 - J12)^4)</f>
+        <v>7155546.458664557</v>
+      </c>
+      <c r="N16" s="161">
+        <f t="shared" si="5"/>
+        <v>0.73390220088867242</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="155">
+        <f>Q11/8</f>
+        <v>62.5</v>
+      </c>
+      <c r="R16" s="1">
+        <f>Q16/TAN(PI()/180 * 22.5)</f>
+        <v>150.88834764831844</v>
+      </c>
+      <c r="S16" s="156">
+        <f>R16/TAN(67.5*PI()/180)*8*Q12*1000*7.8/1000000</f>
+        <v>11.700000000000001</v>
+      </c>
+      <c r="T16" s="158">
+        <f>1.7515*((R16/2)^4 - (R16/2 - Q12)^4)</f>
+        <v>8501233.5583863482</v>
+      </c>
+      <c r="U16" s="161">
+        <f t="shared" si="6"/>
+        <v>0.72660115883643994</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="X16" s="155">
+        <f>X11/8</f>
+        <v>62.5</v>
+      </c>
+      <c r="Y16" s="1">
+        <f>X16/TAN(PI()/180 * 22.5)</f>
+        <v>150.88834764831844</v>
+      </c>
+      <c r="Z16" s="156">
+        <f>Y16/TAN(67.5*PI()/180)*8*X12*1000*7.8/1000000</f>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="AA16" s="158">
+        <f>1.7515*((Y16/2)^4 - (Y16/2 - X12)^4)</f>
+        <v>11110257.101609664</v>
+      </c>
+      <c r="AB16" s="161">
+        <f t="shared" si="7"/>
+        <v>0.71219596805190144</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="162">
+        <f>C11/PI()</f>
+        <v>159.15494309189535</v>
+      </c>
+      <c r="D17" s="11">
+        <f>C17</f>
+        <v>159.15494309189535</v>
+      </c>
+      <c r="E17" s="163">
+        <f>PI()*D17*C12*7.851/1000</f>
+        <v>5.8882500000000002</v>
+      </c>
+      <c r="F17" s="164">
+        <f>PI()/32 *(D17^4 - (D17- 2*C12)^4)</f>
+        <v>4616823.0478443848</v>
+      </c>
+      <c r="G17" s="165">
+        <f t="shared" si="4"/>
+        <v>0.78407388406477041</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="162">
+        <f>J11/PI()</f>
+        <v>159.15494309189535</v>
+      </c>
+      <c r="K17" s="11">
+        <f>J17</f>
+        <v>159.15494309189535</v>
+      </c>
+      <c r="L17" s="163">
+        <f>PI()*K17*J12*7.851/1000</f>
+        <v>9.8137500000000006</v>
+      </c>
+      <c r="M17" s="164">
+        <f>PI()/32 *(K17^4 - (K17- 2*J12)^4)</f>
+        <v>7550449.214954487</v>
+      </c>
+      <c r="N17" s="165">
+        <f t="shared" si="5"/>
+        <v>0.76937452196708567</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="162">
+        <f>Q11/PI()</f>
+        <v>159.15494309189535</v>
+      </c>
+      <c r="R17" s="11">
+        <f>Q17</f>
+        <v>159.15494309189535</v>
+      </c>
+      <c r="S17" s="163">
+        <f>PI()*R17*Q12*7.851/1000</f>
+        <v>11.7765</v>
+      </c>
+      <c r="T17" s="164">
+        <f>PI()/32 *(R17^4 - (R17- 2*Q12)^4)</f>
+        <v>8975085.7990315389</v>
+      </c>
+      <c r="U17" s="165">
+        <f t="shared" si="6"/>
+        <v>0.7621182693526547</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X17" s="162">
+        <f>X11/PI()</f>
+        <v>159.15494309189535</v>
+      </c>
+      <c r="Y17" s="11">
+        <f>X17</f>
+        <v>159.15494309189535</v>
+      </c>
+      <c r="Z17" s="163">
+        <f>PI()*Y17*X12*7.851/1000</f>
+        <v>15.702</v>
+      </c>
+      <c r="AA17" s="164">
+        <f>PI()/32 *(Y17^4 - (Y17- 2*X12)^4)</f>
+        <v>11741816.172881195</v>
+      </c>
+      <c r="AB17" s="165">
+        <f t="shared" si="7"/>
+        <v>0.74779112042295226</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B19" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="13">
+        <v>600</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="2"/>
+      <c r="I19" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="13">
+        <v>600</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="2"/>
+      <c r="P19" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>600</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="2"/>
+      <c r="W19" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="X19" s="13">
+        <v>600</v>
+      </c>
+      <c r="Y19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="2"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="3"/>
+      <c r="I20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="3"/>
+      <c r="P20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>3</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="3"/>
+      <c r="W20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" s="15">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="3"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="160" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="M21" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="N21" s="160" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="R21" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="S21" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="T21" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="U21" s="160" t="s">
+        <v>108</v>
+      </c>
+      <c r="W21" s="14"/>
+      <c r="X21" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y21" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z21" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA21" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB21" s="160" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="155">
+        <f>C19/4</f>
+        <v>150</v>
+      </c>
+      <c r="D22" s="1">
+        <f>C22</f>
+        <v>150</v>
+      </c>
+      <c r="E22" s="1">
+        <f>C22*C20*4*7.851/1000</f>
+        <v>7.0659000000000001</v>
+      </c>
+      <c r="F22" s="157">
+        <f>1/6*(C22^4 - (C22-2*C20)^4)</f>
+        <v>6550186.5</v>
+      </c>
+      <c r="G22" s="161">
+        <f>F22/E22/1000000</f>
+        <v>0.92701375620939996</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="155">
+        <f>J19/4</f>
+        <v>150</v>
+      </c>
+      <c r="K22" s="1">
+        <f>J22</f>
+        <v>150</v>
+      </c>
+      <c r="L22" s="1">
+        <f>J22*J20*4*7.851/1000</f>
+        <v>11.7765</v>
+      </c>
+      <c r="M22" s="157">
+        <f>1/6*(J22^4 - (J22-2*J20)^4)</f>
+        <v>10699895.833333332</v>
+      </c>
+      <c r="N22" s="161">
+        <f>M22/L22/1000000</f>
+        <v>0.90858029408850949</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q22" s="155">
+        <f>Q19/4</f>
+        <v>150</v>
+      </c>
+      <c r="R22" s="1">
+        <f>Q22</f>
+        <v>150</v>
+      </c>
+      <c r="S22" s="1">
+        <f>Q22*Q20*4*7.851/1000</f>
+        <v>14.1318</v>
+      </c>
+      <c r="T22" s="157">
+        <f>1/6*(Q22^4 - (Q22-2*Q20)^4)</f>
+        <v>12711384</v>
+      </c>
+      <c r="U22" s="161">
+        <f>T22/S22/1000000</f>
+        <v>0.89948796331677494</v>
+      </c>
+      <c r="W22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="X22" s="155">
+        <f>X19/4</f>
+        <v>150</v>
+      </c>
+      <c r="Y22" s="1">
+        <f>X22</f>
+        <v>150</v>
+      </c>
+      <c r="Z22" s="1">
+        <f>X22*X20*4*7.851/1000</f>
+        <v>18.842400000000001</v>
+      </c>
+      <c r="AA22" s="157">
+        <f>1/6*(X22^4 - (X22-2*X20)^4)</f>
+        <v>16610517.333333332</v>
+      </c>
+      <c r="AB22" s="161">
+        <f>AA22/Z22/1000000</f>
+        <v>0.88154997947890557</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B23" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="155">
+        <f>C19/6</f>
+        <v>100</v>
+      </c>
+      <c r="D23" s="1">
+        <f>C23*SQRT(3)</f>
+        <v>173.20508075688772</v>
+      </c>
+      <c r="E23" s="156">
+        <f>0.866*(D23^2 - (D23-2*C20)^2)*1000*7.86/1000000</f>
+        <v>7.0125316529565254</v>
+      </c>
+      <c r="F23" s="156">
+        <f>0.1203*(D23^4 - (D23-2*C20)^4)</f>
+        <v>7308520.2428105315</v>
+      </c>
+      <c r="G23" s="161">
+        <f t="shared" ref="G23:G25" si="8">F23/E23/1000000</f>
+        <v>1.0422085210452083</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="155">
+        <f>J19/6</f>
+        <v>100</v>
+      </c>
+      <c r="K23" s="1">
+        <f>J23*SQRT(3)</f>
+        <v>173.20508075688772</v>
+      </c>
+      <c r="L23" s="156">
+        <f>0.866*(K23^2 - (K23-2*J20)^2)*1000*7.86/1000000</f>
+        <v>11.619485154927535</v>
+      </c>
+      <c r="M23" s="156">
+        <f>0.1203*(K23^4 - (K23-2*J20)^4)</f>
+        <v>11970935.827139689</v>
+      </c>
+      <c r="N23" s="161">
+        <f t="shared" ref="N23:N25" si="9">M23/L23/1000000</f>
+        <v>1.0302466647640676</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q23" s="155">
+        <f>Q19/6</f>
+        <v>100</v>
+      </c>
+      <c r="R23" s="1">
+        <f>Q23*SQRT(3)</f>
+        <v>173.20508075688772</v>
+      </c>
+      <c r="S23" s="156">
+        <f>0.866*(R23^2 - (R23-2*Q20)^2)*1000*7.86/1000000</f>
+        <v>13.902541625913051</v>
+      </c>
+      <c r="T23" s="156">
+        <f>0.1203*(R23^4 - (R23-2*Q20)^4)</f>
+        <v>14240634.163568411</v>
+      </c>
+      <c r="U23" s="161">
+        <f t="shared" ref="U23:U25" si="10">T23/S23/1000000</f>
+        <v>1.024318757443976</v>
+      </c>
+      <c r="W23" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="X23" s="155">
+        <f>X19/6</f>
+        <v>100</v>
+      </c>
+      <c r="Y23" s="1">
+        <f>X23*SQRT(3)</f>
+        <v>173.20508075688772</v>
+      </c>
+      <c r="Z23" s="156">
+        <f>0.866*(Y23^2 - (Y23-2*X20)^2)*1000*7.86/1000000</f>
+        <v>18.427814007884059</v>
+      </c>
+      <c r="AA23" s="156">
+        <f>0.1203*(Y23^4 - (Y23-2*X20)^4)</f>
+        <v>18659432.915499896</v>
+      </c>
+      <c r="AB23" s="161">
+        <f t="shared" ref="AB23:AB25" si="11">AA23/Z23/1000000</f>
+        <v>1.0125689844447499</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B24" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="155">
+        <f>C19/8</f>
+        <v>75</v>
+      </c>
+      <c r="D24" s="1">
+        <f>C24/TAN(PI()/180 * 22.5)</f>
+        <v>181.06601717798213</v>
+      </c>
+      <c r="E24" s="156">
+        <f>D24/TAN(67.5*PI()/180)*8*C20*1000*7.8/1000000</f>
+        <v>7.02</v>
+      </c>
+      <c r="F24" s="158">
+        <f>1.7515*((D24/2)^4 - (D24/2 - C20)^4)</f>
+        <v>7606312.4146735622</v>
+      </c>
+      <c r="G24" s="161">
+        <f t="shared" si="8"/>
+        <v>1.0835202869905358</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J24" s="155">
+        <f>J19/8</f>
+        <v>75</v>
+      </c>
+      <c r="K24" s="1">
+        <f>J24/TAN(PI()/180 * 22.5)</f>
+        <v>181.06601717798213</v>
+      </c>
+      <c r="L24" s="156">
+        <f>K24/TAN(67.5*PI()/180)*8*J20*1000*7.8/1000000</f>
+        <v>11.7</v>
+      </c>
+      <c r="M24" s="158">
+        <f>1.7515*((K24/2)^4 - (K24/2 - J20)^4)</f>
+        <v>12468141.12244693</v>
+      </c>
+      <c r="N24" s="161">
+        <f t="shared" si="9"/>
+        <v>1.0656530873886265</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q24" s="155">
+        <f>Q19/8</f>
+        <v>75</v>
+      </c>
+      <c r="R24" s="1">
+        <f>Q24/TAN(PI()/180 * 22.5)</f>
+        <v>181.06601717798213</v>
+      </c>
+      <c r="S24" s="156">
+        <f>R24/TAN(67.5*PI()/180)*8*Q20*1000*7.8/1000000</f>
+        <v>14.04</v>
+      </c>
+      <c r="T24" s="158">
+        <f>1.7515*((R24/2)^4 - (R24/2 - Q20)^4)</f>
+        <v>14837741.136686817</v>
+      </c>
+      <c r="U24" s="161">
+        <f t="shared" si="10"/>
+        <v>1.0568191692796878</v>
+      </c>
+      <c r="W24" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="X24" s="155">
+        <f>X19/8</f>
+        <v>75</v>
+      </c>
+      <c r="Y24" s="1">
+        <f>X24/TAN(PI()/180 * 22.5)</f>
+        <v>181.06601717798213</v>
+      </c>
+      <c r="Z24" s="156">
+        <f>Y24/TAN(67.5*PI()/180)*8*X20*1000*7.8/1000000</f>
+        <v>18.72</v>
+      </c>
+      <c r="AA24" s="158">
+        <f>1.7515*((Y24/2)^4 - (Y24/2 - X20)^4)</f>
+        <v>19456618.764966123</v>
+      </c>
+      <c r="AB24" s="161">
+        <f t="shared" si="11"/>
+        <v>1.0393492930003272</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="162">
+        <f>C19/PI()</f>
+        <v>190.9859317102744</v>
+      </c>
+      <c r="D25" s="11">
+        <f>C25</f>
+        <v>190.9859317102744</v>
+      </c>
+      <c r="E25" s="163">
+        <f>PI()*D25*C20*7.851/1000</f>
+        <v>7.0659000000000001</v>
+      </c>
+      <c r="F25" s="164">
+        <f>PI()/32 *(D25^4 - (D25- 2*C20)^4)</f>
+        <v>8015659.6670163162</v>
+      </c>
+      <c r="G25" s="165">
+        <f t="shared" si="8"/>
+        <v>1.1344145355887172</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="162">
+        <f>J19/PI()</f>
+        <v>190.9859317102744</v>
+      </c>
+      <c r="K25" s="11">
+        <f>J25</f>
+        <v>190.9859317102744</v>
+      </c>
+      <c r="L25" s="163">
+        <f>PI()*K25*J20*7.851/1000</f>
+        <v>11.7765</v>
+      </c>
+      <c r="M25" s="164">
+        <f>PI()/32 *(K25^4 - (K25- 2*J20)^4)</f>
+        <v>13150525.499548942</v>
+      </c>
+      <c r="N25" s="165">
+        <f t="shared" si="9"/>
+        <v>1.1166752005730856</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q25" s="162">
+        <f>Q19/PI()</f>
+        <v>190.9859317102744</v>
+      </c>
+      <c r="R25" s="11">
+        <f>Q25</f>
+        <v>190.9859317102744</v>
+      </c>
+      <c r="S25" s="163">
+        <f>PI()*R25*Q20*7.851/1000</f>
+        <v>14.1318</v>
+      </c>
+      <c r="T25" s="164">
+        <f>PI()/32 *(R25^4 - (R25- 2*Q20)^4)</f>
+        <v>15656611.492129657</v>
+      </c>
+      <c r="U25" s="165">
+        <f t="shared" si="10"/>
+        <v>1.1078993116326057</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X25" s="162">
+        <f>X19/PI()</f>
+        <v>190.9859317102744</v>
+      </c>
+      <c r="Y25" s="11">
+        <f>X25</f>
+        <v>190.9859317102744</v>
+      </c>
+      <c r="Z25" s="163">
+        <f>PI()*Y25*X20*7.851/1000</f>
+        <v>18.842400000000001</v>
+      </c>
+      <c r="AA25" s="164">
+        <f>PI()/32 *(Y25^4 - (Y25- 2*X20)^4)</f>
+        <v>20548274.834571298</v>
+      </c>
+      <c r="AB25" s="165">
+        <f t="shared" si="11"/>
+        <v>1.0905338404115876</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>